--- a/Data/rudder_test.xlsx
+++ b/Data/rudder_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Documents\Python_Practice\Skyhawk_Modeling\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416914C4-638C-40C3-80CA-20053BBBE5DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D254F59F-3454-4629-A6BA-2E151658FD9E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10884" yWindow="3408" windowWidth="12636" windowHeight="9072" xr2:uid="{BEE97F73-13BA-4A7C-A824-A0DCA431BD81}"/>
+    <workbookView xWindow="10080" yWindow="2856" windowWidth="12636" windowHeight="9072" xr2:uid="{BEE97F73-13BA-4A7C-A824-A0DCA431BD81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,7 +394,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,7 +478,7 @@
         <v>3.5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -487,7 +487,7 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -496,7 +496,7 @@
         <v>4.5</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">

--- a/Data/rudder_test.xlsx
+++ b/Data/rudder_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Documents\Python_Practice\Skyhawk_Modeling\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D254F59F-3454-4629-A6BA-2E151658FD9E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1C1C40-E03C-439B-8795-041FF7FC1F20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="2856" windowWidth="12636" windowHeight="9072" xr2:uid="{BEE97F73-13BA-4A7C-A824-A0DCA431BD81}"/>
+    <workbookView xWindow="8808" yWindow="2052" windowWidth="12096" windowHeight="9072" xr2:uid="{BEE97F73-13BA-4A7C-A824-A0DCA431BD81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6321E13C-97CD-405F-8B6E-95A018812663}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A987" workbookViewId="0">
+      <selection activeCell="D1000" sqref="D1000"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,8 +420,8 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>A2+0.5</f>
-        <v>0.5</v>
+        <f>A2+0.01</f>
+        <v>0.01</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -429,8 +429,8 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A32" si="0">A3+0.5</f>
-        <v>1</v>
+        <f t="shared" ref="A4:A67" si="0">A3+0.01</f>
+        <v>0.02</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -439,70 +439,70 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>1.5</v>
+        <v>0.03</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0.04</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>0.05</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>3.5</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B9">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0.08</v>
       </c>
       <c r="B10">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>0.09</v>
       </c>
       <c r="B11">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -511,7 +511,7 @@
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
-        <v>5.5</v>
+        <v>0.10999999999999999</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -520,7 +520,7 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0.11999999999999998</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -529,7 +529,7 @@
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>0.12999999999999998</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -538,7 +538,7 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0.13999999999999999</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -547,7 +547,7 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
-        <v>7.5</v>
+        <v>0.15</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -556,7 +556,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0.16</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -565,7 +565,7 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
-        <v>8.5</v>
+        <v>0.17</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -574,7 +574,7 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -583,7 +583,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>0.19000000000000003</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -592,7 +592,7 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0.20000000000000004</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -601,7 +601,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
-        <v>10.5</v>
+        <v>0.21000000000000005</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -609,8 +609,8 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <f>A23+0.5</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>0.22000000000000006</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -619,7 +619,7 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>0.23000000000000007</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -628,7 +628,7 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>0.24000000000000007</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -637,7 +637,7 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>0.25000000000000006</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -645,8 +645,8 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <f>A27+0.5</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>0.26000000000000006</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -655,7 +655,7 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
-        <v>13.5</v>
+        <v>0.27000000000000007</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -664,7 +664,7 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>0.28000000000000008</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -673,7 +673,7 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
-        <v>14.5</v>
+        <v>0.29000000000000009</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -682,9 +682,8739 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0.3000000000000001</v>
       </c>
       <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>0.31000000000000011</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>0.32000000000000012</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>0.33000000000000013</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>0.34000000000000014</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>0.35000000000000014</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>0.36000000000000015</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>0.37000000000000016</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>0.38000000000000017</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>0.39000000000000018</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>0.40000000000000019</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>0.4100000000000002</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>0.42000000000000021</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>0.43000000000000022</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>0.44000000000000022</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>0.45000000000000023</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>0.46000000000000024</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>0.47000000000000025</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>0.48000000000000026</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>0.49000000000000027</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>0.50000000000000022</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>0.51000000000000023</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>0.52000000000000024</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>0.53000000000000025</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>0.54000000000000026</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000027</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000028</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>0.57000000000000028</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>0.58000000000000029</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>0.5900000000000003</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000031</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>0.61000000000000032</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>0.62000000000000033</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>0.63000000000000034</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>0.64000000000000035</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>0.65000000000000036</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f t="shared" ref="A68:A131" si="1">A67+0.01</f>
+        <v>0.66000000000000036</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f t="shared" si="1"/>
+        <v>0.67000000000000037</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f t="shared" si="1"/>
+        <v>0.68000000000000038</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f t="shared" si="1"/>
+        <v>0.69000000000000039</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f t="shared" si="1"/>
+        <v>0.7000000000000004</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>0.71000000000000041</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>0.72000000000000042</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>0.73000000000000043</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>0.74000000000000044</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>0.75000000000000044</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>0.76000000000000045</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>0.77000000000000046</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>0.78000000000000047</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>0.79000000000000048</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>0.80000000000000049</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>0.8100000000000005</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>0.82000000000000051</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>0.83000000000000052</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>0.84000000000000052</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>0.85000000000000053</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>0.86000000000000054</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>0.87000000000000055</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>0.88000000000000056</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>0.89000000000000057</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>0.90000000000000058</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>0.91000000000000059</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>0.9200000000000006</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>0.9300000000000006</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>0.94000000000000061</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>0.95000000000000062</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>0.96000000000000063</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>0.97000000000000064</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>0.98000000000000065</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>0.99000000000000066</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000007</v>
+      </c>
+      <c r="B102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <f t="shared" si="1"/>
+        <v>1.0100000000000007</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <f t="shared" si="1"/>
+        <v>1.0200000000000007</v>
+      </c>
+      <c r="B104">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <f t="shared" si="1"/>
+        <v>1.0300000000000007</v>
+      </c>
+      <c r="B105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <f t="shared" si="1"/>
+        <v>1.0400000000000007</v>
+      </c>
+      <c r="B106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <f t="shared" si="1"/>
+        <v>1.0500000000000007</v>
+      </c>
+      <c r="B107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <f t="shared" si="1"/>
+        <v>1.0600000000000007</v>
+      </c>
+      <c r="B108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <f t="shared" si="1"/>
+        <v>1.0700000000000007</v>
+      </c>
+      <c r="B109">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <f t="shared" si="1"/>
+        <v>1.0800000000000007</v>
+      </c>
+      <c r="B110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <f t="shared" si="1"/>
+        <v>1.0900000000000007</v>
+      </c>
+      <c r="B111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000008</v>
+      </c>
+      <c r="B112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <f t="shared" si="1"/>
+        <v>1.1100000000000008</v>
+      </c>
+      <c r="B113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <f t="shared" si="1"/>
+        <v>1.1200000000000008</v>
+      </c>
+      <c r="B114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <f t="shared" si="1"/>
+        <v>1.1300000000000008</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <f t="shared" si="1"/>
+        <v>1.1400000000000008</v>
+      </c>
+      <c r="B116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <f t="shared" si="1"/>
+        <v>1.1500000000000008</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <f t="shared" si="1"/>
+        <v>1.1600000000000008</v>
+      </c>
+      <c r="B118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <f t="shared" si="1"/>
+        <v>1.1700000000000008</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <f t="shared" si="1"/>
+        <v>1.1800000000000008</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <f t="shared" si="1"/>
+        <v>1.1900000000000008</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <f t="shared" si="1"/>
+        <v>1.2000000000000008</v>
+      </c>
+      <c r="B122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <f t="shared" si="1"/>
+        <v>1.2100000000000009</v>
+      </c>
+      <c r="B123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <f t="shared" si="1"/>
+        <v>1.2200000000000009</v>
+      </c>
+      <c r="B124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <f t="shared" si="1"/>
+        <v>1.2300000000000009</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <f t="shared" si="1"/>
+        <v>1.2400000000000009</v>
+      </c>
+      <c r="B126">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <f t="shared" si="1"/>
+        <v>1.2500000000000009</v>
+      </c>
+      <c r="B127">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <f t="shared" si="1"/>
+        <v>1.2600000000000009</v>
+      </c>
+      <c r="B128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <f t="shared" si="1"/>
+        <v>1.2700000000000009</v>
+      </c>
+      <c r="B129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <f t="shared" si="1"/>
+        <v>1.2800000000000009</v>
+      </c>
+      <c r="B130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <f t="shared" si="1"/>
+        <v>1.2900000000000009</v>
+      </c>
+      <c r="B131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <f t="shared" ref="A132:A195" si="2">A131+0.01</f>
+        <v>1.3000000000000009</v>
+      </c>
+      <c r="B132">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <f t="shared" si="2"/>
+        <v>1.3100000000000009</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <f t="shared" si="2"/>
+        <v>1.320000000000001</v>
+      </c>
+      <c r="B134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <f t="shared" si="2"/>
+        <v>1.330000000000001</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <f t="shared" si="2"/>
+        <v>1.340000000000001</v>
+      </c>
+      <c r="B136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <f t="shared" si="2"/>
+        <v>1.350000000000001</v>
+      </c>
+      <c r="B137">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <f t="shared" si="2"/>
+        <v>1.360000000000001</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <f t="shared" si="2"/>
+        <v>1.370000000000001</v>
+      </c>
+      <c r="B139">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <f t="shared" si="2"/>
+        <v>1.380000000000001</v>
+      </c>
+      <c r="B140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <f t="shared" si="2"/>
+        <v>1.390000000000001</v>
+      </c>
+      <c r="B141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <f t="shared" si="2"/>
+        <v>1.400000000000001</v>
+      </c>
+      <c r="B142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <f t="shared" si="2"/>
+        <v>1.410000000000001</v>
+      </c>
+      <c r="B143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <f t="shared" si="2"/>
+        <v>1.420000000000001</v>
+      </c>
+      <c r="B144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <f t="shared" si="2"/>
+        <v>1.430000000000001</v>
+      </c>
+      <c r="B145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <f t="shared" si="2"/>
+        <v>1.4400000000000011</v>
+      </c>
+      <c r="B146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <f t="shared" si="2"/>
+        <v>1.4500000000000011</v>
+      </c>
+      <c r="B147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <f t="shared" si="2"/>
+        <v>1.4600000000000011</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <f t="shared" si="2"/>
+        <v>1.4700000000000011</v>
+      </c>
+      <c r="B149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <f t="shared" si="2"/>
+        <v>1.4800000000000011</v>
+      </c>
+      <c r="B150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <f t="shared" si="2"/>
+        <v>1.4900000000000011</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <f t="shared" si="2"/>
+        <v>1.5000000000000011</v>
+      </c>
+      <c r="B152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <f t="shared" si="2"/>
+        <v>1.5100000000000011</v>
+      </c>
+      <c r="B153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <f t="shared" si="2"/>
+        <v>1.5200000000000011</v>
+      </c>
+      <c r="B154">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <f t="shared" si="2"/>
+        <v>1.5300000000000011</v>
+      </c>
+      <c r="B155">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <f t="shared" si="2"/>
+        <v>1.5400000000000011</v>
+      </c>
+      <c r="B156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <f t="shared" si="2"/>
+        <v>1.5500000000000012</v>
+      </c>
+      <c r="B157">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <f t="shared" si="2"/>
+        <v>1.5600000000000012</v>
+      </c>
+      <c r="B158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <f t="shared" si="2"/>
+        <v>1.5700000000000012</v>
+      </c>
+      <c r="B159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <f t="shared" si="2"/>
+        <v>1.5800000000000012</v>
+      </c>
+      <c r="B160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <f t="shared" si="2"/>
+        <v>1.5900000000000012</v>
+      </c>
+      <c r="B161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000012</v>
+      </c>
+      <c r="B162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <f t="shared" si="2"/>
+        <v>1.6100000000000012</v>
+      </c>
+      <c r="B163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <f t="shared" si="2"/>
+        <v>1.6200000000000012</v>
+      </c>
+      <c r="B164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <f t="shared" si="2"/>
+        <v>1.6300000000000012</v>
+      </c>
+      <c r="B165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <f t="shared" si="2"/>
+        <v>1.6400000000000012</v>
+      </c>
+      <c r="B166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <f t="shared" si="2"/>
+        <v>1.6500000000000012</v>
+      </c>
+      <c r="B167">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <f t="shared" si="2"/>
+        <v>1.6600000000000013</v>
+      </c>
+      <c r="B168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <f t="shared" si="2"/>
+        <v>1.6700000000000013</v>
+      </c>
+      <c r="B169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <f t="shared" si="2"/>
+        <v>1.6800000000000013</v>
+      </c>
+      <c r="B170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <f t="shared" si="2"/>
+        <v>1.6900000000000013</v>
+      </c>
+      <c r="B171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000013</v>
+      </c>
+      <c r="B172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <f t="shared" si="2"/>
+        <v>1.7100000000000013</v>
+      </c>
+      <c r="B173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <f t="shared" si="2"/>
+        <v>1.7200000000000013</v>
+      </c>
+      <c r="B174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <f t="shared" si="2"/>
+        <v>1.7300000000000013</v>
+      </c>
+      <c r="B175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <f t="shared" si="2"/>
+        <v>1.7400000000000013</v>
+      </c>
+      <c r="B176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <f t="shared" si="2"/>
+        <v>1.7500000000000013</v>
+      </c>
+      <c r="B177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <f t="shared" si="2"/>
+        <v>1.7600000000000013</v>
+      </c>
+      <c r="B178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <f t="shared" si="2"/>
+        <v>1.7700000000000014</v>
+      </c>
+      <c r="B179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <f t="shared" si="2"/>
+        <v>1.7800000000000014</v>
+      </c>
+      <c r="B180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <f t="shared" si="2"/>
+        <v>1.7900000000000014</v>
+      </c>
+      <c r="B181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000014</v>
+      </c>
+      <c r="B182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <f t="shared" si="2"/>
+        <v>1.8100000000000014</v>
+      </c>
+      <c r="B183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <f t="shared" si="2"/>
+        <v>1.8200000000000014</v>
+      </c>
+      <c r="B184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <f t="shared" si="2"/>
+        <v>1.8300000000000014</v>
+      </c>
+      <c r="B185">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <f t="shared" si="2"/>
+        <v>1.8400000000000014</v>
+      </c>
+      <c r="B186">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <f t="shared" si="2"/>
+        <v>1.8500000000000014</v>
+      </c>
+      <c r="B187">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <f t="shared" si="2"/>
+        <v>1.8600000000000014</v>
+      </c>
+      <c r="B188">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <f t="shared" si="2"/>
+        <v>1.8700000000000014</v>
+      </c>
+      <c r="B189">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <f t="shared" si="2"/>
+        <v>1.8800000000000014</v>
+      </c>
+      <c r="B190">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <f t="shared" si="2"/>
+        <v>1.8900000000000015</v>
+      </c>
+      <c r="B191">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <f t="shared" si="2"/>
+        <v>1.9000000000000015</v>
+      </c>
+      <c r="B192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <f t="shared" si="2"/>
+        <v>1.9100000000000015</v>
+      </c>
+      <c r="B193">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <f t="shared" si="2"/>
+        <v>1.9200000000000015</v>
+      </c>
+      <c r="B194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <f t="shared" si="2"/>
+        <v>1.9300000000000015</v>
+      </c>
+      <c r="B195">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <f t="shared" ref="A196:A259" si="3">A195+0.01</f>
+        <v>1.9400000000000015</v>
+      </c>
+      <c r="B196">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <f t="shared" si="3"/>
+        <v>1.9500000000000015</v>
+      </c>
+      <c r="B197">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <f t="shared" si="3"/>
+        <v>1.9600000000000015</v>
+      </c>
+      <c r="B198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <f t="shared" si="3"/>
+        <v>1.9700000000000015</v>
+      </c>
+      <c r="B199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <f t="shared" si="3"/>
+        <v>1.9800000000000015</v>
+      </c>
+      <c r="B200">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <f t="shared" si="3"/>
+        <v>1.9900000000000015</v>
+      </c>
+      <c r="B201">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000013</v>
+      </c>
+      <c r="B202">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <f t="shared" si="3"/>
+        <v>2.0100000000000011</v>
+      </c>
+      <c r="B203">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <f t="shared" si="3"/>
+        <v>2.0200000000000009</v>
+      </c>
+      <c r="B204">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <f t="shared" si="3"/>
+        <v>2.0300000000000007</v>
+      </c>
+      <c r="B205">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <f t="shared" si="3"/>
+        <v>2.0400000000000005</v>
+      </c>
+      <c r="B206">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <f t="shared" si="3"/>
+        <v>2.0500000000000003</v>
+      </c>
+      <c r="B207">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <f t="shared" si="3"/>
+        <v>2.06</v>
+      </c>
+      <c r="B208">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <f t="shared" si="3"/>
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="B209">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <f t="shared" si="3"/>
+        <v>2.0799999999999996</v>
+      </c>
+      <c r="B210">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <f t="shared" si="3"/>
+        <v>2.0899999999999994</v>
+      </c>
+      <c r="B211">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <f t="shared" si="3"/>
+        <v>2.0999999999999992</v>
+      </c>
+      <c r="B212">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <f t="shared" si="3"/>
+        <v>2.109999999999999</v>
+      </c>
+      <c r="B213">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <f t="shared" si="3"/>
+        <v>2.1199999999999988</v>
+      </c>
+      <c r="B214">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <f t="shared" si="3"/>
+        <v>2.1299999999999986</v>
+      </c>
+      <c r="B215">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <f t="shared" si="3"/>
+        <v>2.1399999999999983</v>
+      </c>
+      <c r="B216">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <f t="shared" si="3"/>
+        <v>2.1499999999999981</v>
+      </c>
+      <c r="B217">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <f t="shared" si="3"/>
+        <v>2.1599999999999979</v>
+      </c>
+      <c r="B218">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <f t="shared" si="3"/>
+        <v>2.1699999999999977</v>
+      </c>
+      <c r="B219">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <f t="shared" si="3"/>
+        <v>2.1799999999999975</v>
+      </c>
+      <c r="B220">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <f t="shared" si="3"/>
+        <v>2.1899999999999973</v>
+      </c>
+      <c r="B221">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <f t="shared" si="3"/>
+        <v>2.1999999999999971</v>
+      </c>
+      <c r="B222">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <f t="shared" si="3"/>
+        <v>2.2099999999999969</v>
+      </c>
+      <c r="B223">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <f t="shared" si="3"/>
+        <v>2.2199999999999966</v>
+      </c>
+      <c r="B224">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <f t="shared" si="3"/>
+        <v>2.2299999999999964</v>
+      </c>
+      <c r="B225">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <f t="shared" si="3"/>
+        <v>2.2399999999999962</v>
+      </c>
+      <c r="B226">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <f t="shared" si="3"/>
+        <v>2.249999999999996</v>
+      </c>
+      <c r="B227">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <f t="shared" si="3"/>
+        <v>2.2599999999999958</v>
+      </c>
+      <c r="B228">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <f t="shared" si="3"/>
+        <v>2.2699999999999956</v>
+      </c>
+      <c r="B229">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <f t="shared" si="3"/>
+        <v>2.2799999999999954</v>
+      </c>
+      <c r="B230">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <f t="shared" si="3"/>
+        <v>2.2899999999999952</v>
+      </c>
+      <c r="B231">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <f t="shared" si="3"/>
+        <v>2.2999999999999949</v>
+      </c>
+      <c r="B232">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <f t="shared" si="3"/>
+        <v>2.3099999999999947</v>
+      </c>
+      <c r="B233">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <f t="shared" si="3"/>
+        <v>2.3199999999999945</v>
+      </c>
+      <c r="B234">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <f t="shared" si="3"/>
+        <v>2.3299999999999943</v>
+      </c>
+      <c r="B235">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <f t="shared" si="3"/>
+        <v>2.3399999999999941</v>
+      </c>
+      <c r="B236">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <f t="shared" si="3"/>
+        <v>2.3499999999999939</v>
+      </c>
+      <c r="B237">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <f t="shared" si="3"/>
+        <v>2.3599999999999937</v>
+      </c>
+      <c r="B238">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <f t="shared" si="3"/>
+        <v>2.3699999999999934</v>
+      </c>
+      <c r="B239">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <f t="shared" si="3"/>
+        <v>2.3799999999999932</v>
+      </c>
+      <c r="B240">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <f t="shared" si="3"/>
+        <v>2.389999999999993</v>
+      </c>
+      <c r="B241">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <f t="shared" si="3"/>
+        <v>2.3999999999999928</v>
+      </c>
+      <c r="B242">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <f t="shared" si="3"/>
+        <v>2.4099999999999926</v>
+      </c>
+      <c r="B243">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <f t="shared" si="3"/>
+        <v>2.4199999999999924</v>
+      </c>
+      <c r="B244">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <f t="shared" si="3"/>
+        <v>2.4299999999999922</v>
+      </c>
+      <c r="B245">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <f t="shared" si="3"/>
+        <v>2.439999999999992</v>
+      </c>
+      <c r="B246">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <f t="shared" si="3"/>
+        <v>2.4499999999999917</v>
+      </c>
+      <c r="B247">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <f t="shared" si="3"/>
+        <v>2.4599999999999915</v>
+      </c>
+      <c r="B248">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <f t="shared" si="3"/>
+        <v>2.4699999999999913</v>
+      </c>
+      <c r="B249">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <f t="shared" si="3"/>
+        <v>2.4799999999999911</v>
+      </c>
+      <c r="B250">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <f t="shared" si="3"/>
+        <v>2.4899999999999909</v>
+      </c>
+      <c r="B251">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <f t="shared" si="3"/>
+        <v>2.4999999999999907</v>
+      </c>
+      <c r="B252">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <f t="shared" si="3"/>
+        <v>2.5099999999999905</v>
+      </c>
+      <c r="B253">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <f t="shared" si="3"/>
+        <v>2.5199999999999902</v>
+      </c>
+      <c r="B254">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <f t="shared" si="3"/>
+        <v>2.52999999999999</v>
+      </c>
+      <c r="B255">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <f t="shared" si="3"/>
+        <v>2.5399999999999898</v>
+      </c>
+      <c r="B256">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <f t="shared" si="3"/>
+        <v>2.5499999999999896</v>
+      </c>
+      <c r="B257">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <f t="shared" si="3"/>
+        <v>2.5599999999999894</v>
+      </c>
+      <c r="B258">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <f t="shared" si="3"/>
+        <v>2.5699999999999892</v>
+      </c>
+      <c r="B259">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <f t="shared" ref="A260:A323" si="4">A259+0.01</f>
+        <v>2.579999999999989</v>
+      </c>
+      <c r="B260">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <f t="shared" si="4"/>
+        <v>2.5899999999999888</v>
+      </c>
+      <c r="B261">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <f t="shared" si="4"/>
+        <v>2.5999999999999885</v>
+      </c>
+      <c r="B262">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <f t="shared" si="4"/>
+        <v>2.6099999999999883</v>
+      </c>
+      <c r="B263">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <f t="shared" si="4"/>
+        <v>2.6199999999999881</v>
+      </c>
+      <c r="B264">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <f t="shared" si="4"/>
+        <v>2.6299999999999879</v>
+      </c>
+      <c r="B265">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <f t="shared" si="4"/>
+        <v>2.6399999999999877</v>
+      </c>
+      <c r="B266">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <f t="shared" si="4"/>
+        <v>2.6499999999999875</v>
+      </c>
+      <c r="B267">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <f t="shared" si="4"/>
+        <v>2.6599999999999873</v>
+      </c>
+      <c r="B268">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <f t="shared" si="4"/>
+        <v>2.6699999999999871</v>
+      </c>
+      <c r="B269">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <f t="shared" si="4"/>
+        <v>2.6799999999999868</v>
+      </c>
+      <c r="B270">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <f t="shared" si="4"/>
+        <v>2.6899999999999866</v>
+      </c>
+      <c r="B271">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <f t="shared" si="4"/>
+        <v>2.6999999999999864</v>
+      </c>
+      <c r="B272">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <f t="shared" si="4"/>
+        <v>2.7099999999999862</v>
+      </c>
+      <c r="B273">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <f t="shared" si="4"/>
+        <v>2.719999999999986</v>
+      </c>
+      <c r="B274">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <f t="shared" si="4"/>
+        <v>2.7299999999999858</v>
+      </c>
+      <c r="B275">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <f t="shared" si="4"/>
+        <v>2.7399999999999856</v>
+      </c>
+      <c r="B276">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <f t="shared" si="4"/>
+        <v>2.7499999999999853</v>
+      </c>
+      <c r="B277">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <f t="shared" si="4"/>
+        <v>2.7599999999999851</v>
+      </c>
+      <c r="B278">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <f t="shared" si="4"/>
+        <v>2.7699999999999849</v>
+      </c>
+      <c r="B279">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <f t="shared" si="4"/>
+        <v>2.7799999999999847</v>
+      </c>
+      <c r="B280">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <f t="shared" si="4"/>
+        <v>2.7899999999999845</v>
+      </c>
+      <c r="B281">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <f t="shared" si="4"/>
+        <v>2.7999999999999843</v>
+      </c>
+      <c r="B282">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <f t="shared" si="4"/>
+        <v>2.8099999999999841</v>
+      </c>
+      <c r="B283">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <f t="shared" si="4"/>
+        <v>2.8199999999999839</v>
+      </c>
+      <c r="B284">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <f t="shared" si="4"/>
+        <v>2.8299999999999836</v>
+      </c>
+      <c r="B285">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <f t="shared" si="4"/>
+        <v>2.8399999999999834</v>
+      </c>
+      <c r="B286">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <f t="shared" si="4"/>
+        <v>2.8499999999999832</v>
+      </c>
+      <c r="B287">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <f t="shared" si="4"/>
+        <v>2.859999999999983</v>
+      </c>
+      <c r="B288">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <f t="shared" si="4"/>
+        <v>2.8699999999999828</v>
+      </c>
+      <c r="B289">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <f t="shared" si="4"/>
+        <v>2.8799999999999826</v>
+      </c>
+      <c r="B290">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <f t="shared" si="4"/>
+        <v>2.8899999999999824</v>
+      </c>
+      <c r="B291">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <f t="shared" si="4"/>
+        <v>2.8999999999999821</v>
+      </c>
+      <c r="B292">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <f t="shared" si="4"/>
+        <v>2.9099999999999819</v>
+      </c>
+      <c r="B293">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <f t="shared" si="4"/>
+        <v>2.9199999999999817</v>
+      </c>
+      <c r="B294">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <f t="shared" si="4"/>
+        <v>2.9299999999999815</v>
+      </c>
+      <c r="B295">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <f t="shared" si="4"/>
+        <v>2.9399999999999813</v>
+      </c>
+      <c r="B296">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <f t="shared" si="4"/>
+        <v>2.9499999999999811</v>
+      </c>
+      <c r="B297">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <f t="shared" si="4"/>
+        <v>2.9599999999999809</v>
+      </c>
+      <c r="B298">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <f t="shared" si="4"/>
+        <v>2.9699999999999807</v>
+      </c>
+      <c r="B299">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <f t="shared" si="4"/>
+        <v>2.9799999999999804</v>
+      </c>
+      <c r="B300">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <f t="shared" si="4"/>
+        <v>2.9899999999999802</v>
+      </c>
+      <c r="B301">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <f t="shared" si="4"/>
+        <v>2.99999999999998</v>
+      </c>
+      <c r="B302">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <f t="shared" si="4"/>
+        <v>3.0099999999999798</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <f t="shared" si="4"/>
+        <v>3.0199999999999796</v>
+      </c>
+      <c r="B304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <f t="shared" si="4"/>
+        <v>3.0299999999999794</v>
+      </c>
+      <c r="B305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <f t="shared" si="4"/>
+        <v>3.0399999999999792</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <f t="shared" si="4"/>
+        <v>3.049999999999979</v>
+      </c>
+      <c r="B307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <f t="shared" si="4"/>
+        <v>3.0599999999999787</v>
+      </c>
+      <c r="B308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <f t="shared" si="4"/>
+        <v>3.0699999999999785</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <f t="shared" si="4"/>
+        <v>3.0799999999999783</v>
+      </c>
+      <c r="B310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <f t="shared" si="4"/>
+        <v>3.0899999999999781</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <f t="shared" si="4"/>
+        <v>3.0999999999999779</v>
+      </c>
+      <c r="B312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <f t="shared" si="4"/>
+        <v>3.1099999999999777</v>
+      </c>
+      <c r="B313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <f t="shared" si="4"/>
+        <v>3.1199999999999775</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <f t="shared" si="4"/>
+        <v>3.1299999999999772</v>
+      </c>
+      <c r="B315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <f t="shared" si="4"/>
+        <v>3.139999999999977</v>
+      </c>
+      <c r="B316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <f t="shared" si="4"/>
+        <v>3.1499999999999768</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <f t="shared" si="4"/>
+        <v>3.1599999999999766</v>
+      </c>
+      <c r="B318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <f t="shared" si="4"/>
+        <v>3.1699999999999764</v>
+      </c>
+      <c r="B319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <f t="shared" si="4"/>
+        <v>3.1799999999999762</v>
+      </c>
+      <c r="B320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <f t="shared" si="4"/>
+        <v>3.189999999999976</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <f t="shared" si="4"/>
+        <v>3.1999999999999758</v>
+      </c>
+      <c r="B322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <f t="shared" si="4"/>
+        <v>3.2099999999999755</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <f t="shared" ref="A324:A387" si="5">A323+0.01</f>
+        <v>3.2199999999999753</v>
+      </c>
+      <c r="B324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <f t="shared" si="5"/>
+        <v>3.2299999999999751</v>
+      </c>
+      <c r="B325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <f t="shared" si="5"/>
+        <v>3.2399999999999749</v>
+      </c>
+      <c r="B326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <f t="shared" si="5"/>
+        <v>3.2499999999999747</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <f t="shared" si="5"/>
+        <v>3.2599999999999745</v>
+      </c>
+      <c r="B328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <f t="shared" si="5"/>
+        <v>3.2699999999999743</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <f t="shared" si="5"/>
+        <v>3.279999999999974</v>
+      </c>
+      <c r="B330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <f t="shared" si="5"/>
+        <v>3.2899999999999738</v>
+      </c>
+      <c r="B331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <f t="shared" si="5"/>
+        <v>3.2999999999999736</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <f t="shared" si="5"/>
+        <v>3.3099999999999734</v>
+      </c>
+      <c r="B333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <f t="shared" si="5"/>
+        <v>3.3199999999999732</v>
+      </c>
+      <c r="B334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <f t="shared" si="5"/>
+        <v>3.329999999999973</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <f t="shared" si="5"/>
+        <v>3.3399999999999728</v>
+      </c>
+      <c r="B336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <f t="shared" si="5"/>
+        <v>3.3499999999999726</v>
+      </c>
+      <c r="B337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <f t="shared" si="5"/>
+        <v>3.3599999999999723</v>
+      </c>
+      <c r="B338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <f t="shared" si="5"/>
+        <v>3.3699999999999721</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <f t="shared" si="5"/>
+        <v>3.3799999999999719</v>
+      </c>
+      <c r="B340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <f t="shared" si="5"/>
+        <v>3.3899999999999717</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <f t="shared" si="5"/>
+        <v>3.3999999999999715</v>
+      </c>
+      <c r="B342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <f t="shared" si="5"/>
+        <v>3.4099999999999713</v>
+      </c>
+      <c r="B343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <f t="shared" si="5"/>
+        <v>3.4199999999999711</v>
+      </c>
+      <c r="B344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <f t="shared" si="5"/>
+        <v>3.4299999999999708</v>
+      </c>
+      <c r="B345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <f t="shared" si="5"/>
+        <v>3.4399999999999706</v>
+      </c>
+      <c r="B346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <f t="shared" si="5"/>
+        <v>3.4499999999999704</v>
+      </c>
+      <c r="B347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <f t="shared" si="5"/>
+        <v>3.4599999999999702</v>
+      </c>
+      <c r="B348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <f t="shared" si="5"/>
+        <v>3.46999999999997</v>
+      </c>
+      <c r="B349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <f t="shared" si="5"/>
+        <v>3.4799999999999698</v>
+      </c>
+      <c r="B350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <f t="shared" si="5"/>
+        <v>3.4899999999999696</v>
+      </c>
+      <c r="B351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <f t="shared" si="5"/>
+        <v>3.4999999999999694</v>
+      </c>
+      <c r="B352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <f t="shared" si="5"/>
+        <v>3.5099999999999691</v>
+      </c>
+      <c r="B353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <f t="shared" si="5"/>
+        <v>3.5199999999999689</v>
+      </c>
+      <c r="B354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <f t="shared" si="5"/>
+        <v>3.5299999999999687</v>
+      </c>
+      <c r="B355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <f t="shared" si="5"/>
+        <v>3.5399999999999685</v>
+      </c>
+      <c r="B356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <f t="shared" si="5"/>
+        <v>3.5499999999999683</v>
+      </c>
+      <c r="B357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <f t="shared" si="5"/>
+        <v>3.5599999999999681</v>
+      </c>
+      <c r="B358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <f t="shared" si="5"/>
+        <v>3.5699999999999679</v>
+      </c>
+      <c r="B359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <f t="shared" si="5"/>
+        <v>3.5799999999999677</v>
+      </c>
+      <c r="B360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <f t="shared" si="5"/>
+        <v>3.5899999999999674</v>
+      </c>
+      <c r="B361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <f t="shared" si="5"/>
+        <v>3.5999999999999672</v>
+      </c>
+      <c r="B362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <f t="shared" si="5"/>
+        <v>3.609999999999967</v>
+      </c>
+      <c r="B363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <f t="shared" si="5"/>
+        <v>3.6199999999999668</v>
+      </c>
+      <c r="B364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <f t="shared" si="5"/>
+        <v>3.6299999999999666</v>
+      </c>
+      <c r="B365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <f t="shared" si="5"/>
+        <v>3.6399999999999664</v>
+      </c>
+      <c r="B366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <f t="shared" si="5"/>
+        <v>3.6499999999999662</v>
+      </c>
+      <c r="B367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <f t="shared" si="5"/>
+        <v>3.6599999999999659</v>
+      </c>
+      <c r="B368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <f t="shared" si="5"/>
+        <v>3.6699999999999657</v>
+      </c>
+      <c r="B369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <f t="shared" si="5"/>
+        <v>3.6799999999999655</v>
+      </c>
+      <c r="B370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <f t="shared" si="5"/>
+        <v>3.6899999999999653</v>
+      </c>
+      <c r="B371">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <f t="shared" si="5"/>
+        <v>3.6999999999999651</v>
+      </c>
+      <c r="B372">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <f t="shared" si="5"/>
+        <v>3.7099999999999649</v>
+      </c>
+      <c r="B373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <f t="shared" si="5"/>
+        <v>3.7199999999999647</v>
+      </c>
+      <c r="B374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <f t="shared" si="5"/>
+        <v>3.7299999999999645</v>
+      </c>
+      <c r="B375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <f t="shared" si="5"/>
+        <v>3.7399999999999642</v>
+      </c>
+      <c r="B376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <f t="shared" si="5"/>
+        <v>3.749999999999964</v>
+      </c>
+      <c r="B377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <f t="shared" si="5"/>
+        <v>3.7599999999999638</v>
+      </c>
+      <c r="B378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <f t="shared" si="5"/>
+        <v>3.7699999999999636</v>
+      </c>
+      <c r="B379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <f t="shared" si="5"/>
+        <v>3.7799999999999634</v>
+      </c>
+      <c r="B380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <f t="shared" si="5"/>
+        <v>3.7899999999999632</v>
+      </c>
+      <c r="B381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <f t="shared" si="5"/>
+        <v>3.799999999999963</v>
+      </c>
+      <c r="B382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <f t="shared" si="5"/>
+        <v>3.8099999999999627</v>
+      </c>
+      <c r="B383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <f t="shared" si="5"/>
+        <v>3.8199999999999625</v>
+      </c>
+      <c r="B384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <f t="shared" si="5"/>
+        <v>3.8299999999999623</v>
+      </c>
+      <c r="B385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <f t="shared" si="5"/>
+        <v>3.8399999999999621</v>
+      </c>
+      <c r="B386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <f t="shared" si="5"/>
+        <v>3.8499999999999619</v>
+      </c>
+      <c r="B387">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <f t="shared" ref="A388:A451" si="6">A387+0.01</f>
+        <v>3.8599999999999617</v>
+      </c>
+      <c r="B388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <f t="shared" si="6"/>
+        <v>3.8699999999999615</v>
+      </c>
+      <c r="B389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <f t="shared" si="6"/>
+        <v>3.8799999999999613</v>
+      </c>
+      <c r="B390">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <f t="shared" si="6"/>
+        <v>3.889999999999961</v>
+      </c>
+      <c r="B391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <f t="shared" si="6"/>
+        <v>3.8999999999999608</v>
+      </c>
+      <c r="B392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <f t="shared" si="6"/>
+        <v>3.9099999999999606</v>
+      </c>
+      <c r="B393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <f t="shared" si="6"/>
+        <v>3.9199999999999604</v>
+      </c>
+      <c r="B394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <f t="shared" si="6"/>
+        <v>3.9299999999999602</v>
+      </c>
+      <c r="B395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <f t="shared" si="6"/>
+        <v>3.93999999999996</v>
+      </c>
+      <c r="B396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <f t="shared" si="6"/>
+        <v>3.9499999999999598</v>
+      </c>
+      <c r="B397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <f t="shared" si="6"/>
+        <v>3.9599999999999596</v>
+      </c>
+      <c r="B398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <f t="shared" si="6"/>
+        <v>3.9699999999999593</v>
+      </c>
+      <c r="B399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <f t="shared" si="6"/>
+        <v>3.9799999999999591</v>
+      </c>
+      <c r="B400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <f t="shared" si="6"/>
+        <v>3.9899999999999589</v>
+      </c>
+      <c r="B401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <f t="shared" si="6"/>
+        <v>3.9999999999999587</v>
+      </c>
+      <c r="B402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <f t="shared" si="6"/>
+        <v>4.0099999999999589</v>
+      </c>
+      <c r="B403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <f t="shared" si="6"/>
+        <v>4.0199999999999587</v>
+      </c>
+      <c r="B404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <f t="shared" si="6"/>
+        <v>4.0299999999999585</v>
+      </c>
+      <c r="B405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <f t="shared" si="6"/>
+        <v>4.0399999999999583</v>
+      </c>
+      <c r="B406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <f t="shared" si="6"/>
+        <v>4.0499999999999581</v>
+      </c>
+      <c r="B407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <f t="shared" si="6"/>
+        <v>4.0599999999999579</v>
+      </c>
+      <c r="B408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <f t="shared" si="6"/>
+        <v>4.0699999999999577</v>
+      </c>
+      <c r="B409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <f t="shared" si="6"/>
+        <v>4.0799999999999574</v>
+      </c>
+      <c r="B410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <f t="shared" si="6"/>
+        <v>4.0899999999999572</v>
+      </c>
+      <c r="B411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <f t="shared" si="6"/>
+        <v>4.099999999999957</v>
+      </c>
+      <c r="B412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <f t="shared" si="6"/>
+        <v>4.1099999999999568</v>
+      </c>
+      <c r="B413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <f t="shared" si="6"/>
+        <v>4.1199999999999566</v>
+      </c>
+      <c r="B414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <f t="shared" si="6"/>
+        <v>4.1299999999999564</v>
+      </c>
+      <c r="B415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <f t="shared" si="6"/>
+        <v>4.1399999999999562</v>
+      </c>
+      <c r="B416">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <f t="shared" si="6"/>
+        <v>4.1499999999999559</v>
+      </c>
+      <c r="B417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <f t="shared" si="6"/>
+        <v>4.1599999999999557</v>
+      </c>
+      <c r="B418">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <f t="shared" si="6"/>
+        <v>4.1699999999999555</v>
+      </c>
+      <c r="B419">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <f t="shared" si="6"/>
+        <v>4.1799999999999553</v>
+      </c>
+      <c r="B420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <f t="shared" si="6"/>
+        <v>4.1899999999999551</v>
+      </c>
+      <c r="B421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <f t="shared" si="6"/>
+        <v>4.1999999999999549</v>
+      </c>
+      <c r="B422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <f t="shared" si="6"/>
+        <v>4.2099999999999547</v>
+      </c>
+      <c r="B423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <f t="shared" si="6"/>
+        <v>4.2199999999999545</v>
+      </c>
+      <c r="B424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <f t="shared" si="6"/>
+        <v>4.2299999999999542</v>
+      </c>
+      <c r="B425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <f t="shared" si="6"/>
+        <v>4.239999999999954</v>
+      </c>
+      <c r="B426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <f t="shared" si="6"/>
+        <v>4.2499999999999538</v>
+      </c>
+      <c r="B427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <f t="shared" si="6"/>
+        <v>4.2599999999999536</v>
+      </c>
+      <c r="B428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <f t="shared" si="6"/>
+        <v>4.2699999999999534</v>
+      </c>
+      <c r="B429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <f t="shared" si="6"/>
+        <v>4.2799999999999532</v>
+      </c>
+      <c r="B430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <f t="shared" si="6"/>
+        <v>4.289999999999953</v>
+      </c>
+      <c r="B431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <f t="shared" si="6"/>
+        <v>4.2999999999999527</v>
+      </c>
+      <c r="B432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <f t="shared" si="6"/>
+        <v>4.3099999999999525</v>
+      </c>
+      <c r="B433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <f t="shared" si="6"/>
+        <v>4.3199999999999523</v>
+      </c>
+      <c r="B434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <f t="shared" si="6"/>
+        <v>4.3299999999999521</v>
+      </c>
+      <c r="B435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <f t="shared" si="6"/>
+        <v>4.3399999999999519</v>
+      </c>
+      <c r="B436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <f t="shared" si="6"/>
+        <v>4.3499999999999517</v>
+      </c>
+      <c r="B437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <f t="shared" si="6"/>
+        <v>4.3599999999999515</v>
+      </c>
+      <c r="B438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <f t="shared" si="6"/>
+        <v>4.3699999999999513</v>
+      </c>
+      <c r="B439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <f t="shared" si="6"/>
+        <v>4.379999999999951</v>
+      </c>
+      <c r="B440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <f t="shared" si="6"/>
+        <v>4.3899999999999508</v>
+      </c>
+      <c r="B441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <f t="shared" si="6"/>
+        <v>4.3999999999999506</v>
+      </c>
+      <c r="B442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <f t="shared" si="6"/>
+        <v>4.4099999999999504</v>
+      </c>
+      <c r="B443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <f t="shared" si="6"/>
+        <v>4.4199999999999502</v>
+      </c>
+      <c r="B444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <f t="shared" si="6"/>
+        <v>4.42999999999995</v>
+      </c>
+      <c r="B445">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <f t="shared" si="6"/>
+        <v>4.4399999999999498</v>
+      </c>
+      <c r="B446">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <f t="shared" si="6"/>
+        <v>4.4499999999999496</v>
+      </c>
+      <c r="B447">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <f t="shared" si="6"/>
+        <v>4.4599999999999493</v>
+      </c>
+      <c r="B448">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <f t="shared" si="6"/>
+        <v>4.4699999999999491</v>
+      </c>
+      <c r="B449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <f t="shared" si="6"/>
+        <v>4.4799999999999489</v>
+      </c>
+      <c r="B450">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <f t="shared" si="6"/>
+        <v>4.4899999999999487</v>
+      </c>
+      <c r="B451">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <f t="shared" ref="A452:A515" si="7">A451+0.01</f>
+        <v>4.4999999999999485</v>
+      </c>
+      <c r="B452">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <f t="shared" si="7"/>
+        <v>4.5099999999999483</v>
+      </c>
+      <c r="B453">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <f t="shared" si="7"/>
+        <v>4.5199999999999481</v>
+      </c>
+      <c r="B454">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <f t="shared" si="7"/>
+        <v>4.5299999999999478</v>
+      </c>
+      <c r="B455">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <f t="shared" si="7"/>
+        <v>4.5399999999999476</v>
+      </c>
+      <c r="B456">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <f t="shared" si="7"/>
+        <v>4.5499999999999474</v>
+      </c>
+      <c r="B457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <f t="shared" si="7"/>
+        <v>4.5599999999999472</v>
+      </c>
+      <c r="B458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <f t="shared" si="7"/>
+        <v>4.569999999999947</v>
+      </c>
+      <c r="B459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <f t="shared" si="7"/>
+        <v>4.5799999999999468</v>
+      </c>
+      <c r="B460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <f t="shared" si="7"/>
+        <v>4.5899999999999466</v>
+      </c>
+      <c r="B461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <f t="shared" si="7"/>
+        <v>4.5999999999999464</v>
+      </c>
+      <c r="B462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <f t="shared" si="7"/>
+        <v>4.6099999999999461</v>
+      </c>
+      <c r="B463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <f t="shared" si="7"/>
+        <v>4.6199999999999459</v>
+      </c>
+      <c r="B464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <f t="shared" si="7"/>
+        <v>4.6299999999999457</v>
+      </c>
+      <c r="B465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <f t="shared" si="7"/>
+        <v>4.6399999999999455</v>
+      </c>
+      <c r="B466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <f t="shared" si="7"/>
+        <v>4.6499999999999453</v>
+      </c>
+      <c r="B467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <f t="shared" si="7"/>
+        <v>4.6599999999999451</v>
+      </c>
+      <c r="B468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <f t="shared" si="7"/>
+        <v>4.6699999999999449</v>
+      </c>
+      <c r="B469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <f t="shared" si="7"/>
+        <v>4.6799999999999446</v>
+      </c>
+      <c r="B470">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <f t="shared" si="7"/>
+        <v>4.6899999999999444</v>
+      </c>
+      <c r="B471">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <f t="shared" si="7"/>
+        <v>4.6999999999999442</v>
+      </c>
+      <c r="B472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <f t="shared" si="7"/>
+        <v>4.709999999999944</v>
+      </c>
+      <c r="B473">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <f t="shared" si="7"/>
+        <v>4.7199999999999438</v>
+      </c>
+      <c r="B474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <f t="shared" si="7"/>
+        <v>4.7299999999999436</v>
+      </c>
+      <c r="B475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <f t="shared" si="7"/>
+        <v>4.7399999999999434</v>
+      </c>
+      <c r="B476">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <f t="shared" si="7"/>
+        <v>4.7499999999999432</v>
+      </c>
+      <c r="B477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <f t="shared" si="7"/>
+        <v>4.7599999999999429</v>
+      </c>
+      <c r="B478">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <f t="shared" si="7"/>
+        <v>4.7699999999999427</v>
+      </c>
+      <c r="B479">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <f t="shared" si="7"/>
+        <v>4.7799999999999425</v>
+      </c>
+      <c r="B480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <f t="shared" si="7"/>
+        <v>4.7899999999999423</v>
+      </c>
+      <c r="B481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <f t="shared" si="7"/>
+        <v>4.7999999999999421</v>
+      </c>
+      <c r="B482">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <f t="shared" si="7"/>
+        <v>4.8099999999999419</v>
+      </c>
+      <c r="B483">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <f t="shared" si="7"/>
+        <v>4.8199999999999417</v>
+      </c>
+      <c r="B484">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <f t="shared" si="7"/>
+        <v>4.8299999999999415</v>
+      </c>
+      <c r="B485">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <f t="shared" si="7"/>
+        <v>4.8399999999999412</v>
+      </c>
+      <c r="B486">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <f t="shared" si="7"/>
+        <v>4.849999999999941</v>
+      </c>
+      <c r="B487">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <f t="shared" si="7"/>
+        <v>4.8599999999999408</v>
+      </c>
+      <c r="B488">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <f t="shared" si="7"/>
+        <v>4.8699999999999406</v>
+      </c>
+      <c r="B489">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <f t="shared" si="7"/>
+        <v>4.8799999999999404</v>
+      </c>
+      <c r="B490">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <f t="shared" si="7"/>
+        <v>4.8899999999999402</v>
+      </c>
+      <c r="B491">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <f t="shared" si="7"/>
+        <v>4.89999999999994</v>
+      </c>
+      <c r="B492">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <f t="shared" si="7"/>
+        <v>4.9099999999999397</v>
+      </c>
+      <c r="B493">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <f t="shared" si="7"/>
+        <v>4.9199999999999395</v>
+      </c>
+      <c r="B494">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <f t="shared" si="7"/>
+        <v>4.9299999999999393</v>
+      </c>
+      <c r="B495">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <f t="shared" si="7"/>
+        <v>4.9399999999999391</v>
+      </c>
+      <c r="B496">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <f t="shared" si="7"/>
+        <v>4.9499999999999389</v>
+      </c>
+      <c r="B497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <f t="shared" si="7"/>
+        <v>4.9599999999999387</v>
+      </c>
+      <c r="B498">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <f t="shared" si="7"/>
+        <v>4.9699999999999385</v>
+      </c>
+      <c r="B499">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <f t="shared" si="7"/>
+        <v>4.9799999999999383</v>
+      </c>
+      <c r="B500">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <f t="shared" si="7"/>
+        <v>4.989999999999938</v>
+      </c>
+      <c r="B501">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <f t="shared" si="7"/>
+        <v>4.9999999999999378</v>
+      </c>
+      <c r="B502">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <f t="shared" si="7"/>
+        <v>5.0099999999999376</v>
+      </c>
+      <c r="B503">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <f t="shared" si="7"/>
+        <v>5.0199999999999374</v>
+      </c>
+      <c r="B504">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <f t="shared" si="7"/>
+        <v>5.0299999999999372</v>
+      </c>
+      <c r="B505">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <f t="shared" si="7"/>
+        <v>5.039999999999937</v>
+      </c>
+      <c r="B506">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <f t="shared" si="7"/>
+        <v>5.0499999999999368</v>
+      </c>
+      <c r="B507">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <f t="shared" si="7"/>
+        <v>5.0599999999999365</v>
+      </c>
+      <c r="B508">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <f t="shared" si="7"/>
+        <v>5.0699999999999363</v>
+      </c>
+      <c r="B509">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <f t="shared" si="7"/>
+        <v>5.0799999999999361</v>
+      </c>
+      <c r="B510">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <f t="shared" si="7"/>
+        <v>5.0899999999999359</v>
+      </c>
+      <c r="B511">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <f t="shared" si="7"/>
+        <v>5.0999999999999357</v>
+      </c>
+      <c r="B512">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <f t="shared" si="7"/>
+        <v>5.1099999999999355</v>
+      </c>
+      <c r="B513">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <f t="shared" si="7"/>
+        <v>5.1199999999999353</v>
+      </c>
+      <c r="B514">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <f t="shared" si="7"/>
+        <v>5.1299999999999351</v>
+      </c>
+      <c r="B515">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <f t="shared" ref="A516:A579" si="8">A515+0.01</f>
+        <v>5.1399999999999348</v>
+      </c>
+      <c r="B516">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <f t="shared" si="8"/>
+        <v>5.1499999999999346</v>
+      </c>
+      <c r="B517">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <f t="shared" si="8"/>
+        <v>5.1599999999999344</v>
+      </c>
+      <c r="B518">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <f t="shared" si="8"/>
+        <v>5.1699999999999342</v>
+      </c>
+      <c r="B519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <f t="shared" si="8"/>
+        <v>5.179999999999934</v>
+      </c>
+      <c r="B520">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <f t="shared" si="8"/>
+        <v>5.1899999999999338</v>
+      </c>
+      <c r="B521">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <f t="shared" si="8"/>
+        <v>5.1999999999999336</v>
+      </c>
+      <c r="B522">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <f t="shared" si="8"/>
+        <v>5.2099999999999334</v>
+      </c>
+      <c r="B523">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <f t="shared" si="8"/>
+        <v>5.2199999999999331</v>
+      </c>
+      <c r="B524">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <f t="shared" si="8"/>
+        <v>5.2299999999999329</v>
+      </c>
+      <c r="B525">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <f t="shared" si="8"/>
+        <v>5.2399999999999327</v>
+      </c>
+      <c r="B526">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <f t="shared" si="8"/>
+        <v>5.2499999999999325</v>
+      </c>
+      <c r="B527">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <f t="shared" si="8"/>
+        <v>5.2599999999999323</v>
+      </c>
+      <c r="B528">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <f t="shared" si="8"/>
+        <v>5.2699999999999321</v>
+      </c>
+      <c r="B529">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <f t="shared" si="8"/>
+        <v>5.2799999999999319</v>
+      </c>
+      <c r="B530">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <f t="shared" si="8"/>
+        <v>5.2899999999999316</v>
+      </c>
+      <c r="B531">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <f t="shared" si="8"/>
+        <v>5.2999999999999314</v>
+      </c>
+      <c r="B532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <f t="shared" si="8"/>
+        <v>5.3099999999999312</v>
+      </c>
+      <c r="B533">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <f t="shared" si="8"/>
+        <v>5.319999999999931</v>
+      </c>
+      <c r="B534">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <f t="shared" si="8"/>
+        <v>5.3299999999999308</v>
+      </c>
+      <c r="B535">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <f t="shared" si="8"/>
+        <v>5.3399999999999306</v>
+      </c>
+      <c r="B536">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <f t="shared" si="8"/>
+        <v>5.3499999999999304</v>
+      </c>
+      <c r="B537">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <f t="shared" si="8"/>
+        <v>5.3599999999999302</v>
+      </c>
+      <c r="B538">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <f t="shared" si="8"/>
+        <v>5.3699999999999299</v>
+      </c>
+      <c r="B539">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <f t="shared" si="8"/>
+        <v>5.3799999999999297</v>
+      </c>
+      <c r="B540">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <f t="shared" si="8"/>
+        <v>5.3899999999999295</v>
+      </c>
+      <c r="B541">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <f t="shared" si="8"/>
+        <v>5.3999999999999293</v>
+      </c>
+      <c r="B542">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <f t="shared" si="8"/>
+        <v>5.4099999999999291</v>
+      </c>
+      <c r="B543">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <f t="shared" si="8"/>
+        <v>5.4199999999999289</v>
+      </c>
+      <c r="B544">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <f t="shared" si="8"/>
+        <v>5.4299999999999287</v>
+      </c>
+      <c r="B545">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <f t="shared" si="8"/>
+        <v>5.4399999999999284</v>
+      </c>
+      <c r="B546">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <f t="shared" si="8"/>
+        <v>5.4499999999999282</v>
+      </c>
+      <c r="B547">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <f t="shared" si="8"/>
+        <v>5.459999999999928</v>
+      </c>
+      <c r="B548">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <f t="shared" si="8"/>
+        <v>5.4699999999999278</v>
+      </c>
+      <c r="B549">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <f t="shared" si="8"/>
+        <v>5.4799999999999276</v>
+      </c>
+      <c r="B550">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <f t="shared" si="8"/>
+        <v>5.4899999999999274</v>
+      </c>
+      <c r="B551">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <f t="shared" si="8"/>
+        <v>5.4999999999999272</v>
+      </c>
+      <c r="B552">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <f t="shared" si="8"/>
+        <v>5.509999999999927</v>
+      </c>
+      <c r="B553">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <f t="shared" si="8"/>
+        <v>5.5199999999999267</v>
+      </c>
+      <c r="B554">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <f t="shared" si="8"/>
+        <v>5.5299999999999265</v>
+      </c>
+      <c r="B555">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <f t="shared" si="8"/>
+        <v>5.5399999999999263</v>
+      </c>
+      <c r="B556">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <f t="shared" si="8"/>
+        <v>5.5499999999999261</v>
+      </c>
+      <c r="B557">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <f t="shared" si="8"/>
+        <v>5.5599999999999259</v>
+      </c>
+      <c r="B558">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <f t="shared" si="8"/>
+        <v>5.5699999999999257</v>
+      </c>
+      <c r="B559">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <f t="shared" si="8"/>
+        <v>5.5799999999999255</v>
+      </c>
+      <c r="B560">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <f t="shared" si="8"/>
+        <v>5.5899999999999253</v>
+      </c>
+      <c r="B561">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <f t="shared" si="8"/>
+        <v>5.599999999999925</v>
+      </c>
+      <c r="B562">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <f t="shared" si="8"/>
+        <v>5.6099999999999248</v>
+      </c>
+      <c r="B563">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <f t="shared" si="8"/>
+        <v>5.6199999999999246</v>
+      </c>
+      <c r="B564">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <f t="shared" si="8"/>
+        <v>5.6299999999999244</v>
+      </c>
+      <c r="B565">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <f t="shared" si="8"/>
+        <v>5.6399999999999242</v>
+      </c>
+      <c r="B566">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <f t="shared" si="8"/>
+        <v>5.649999999999924</v>
+      </c>
+      <c r="B567">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <f t="shared" si="8"/>
+        <v>5.6599999999999238</v>
+      </c>
+      <c r="B568">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <f t="shared" si="8"/>
+        <v>5.6699999999999235</v>
+      </c>
+      <c r="B569">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <f t="shared" si="8"/>
+        <v>5.6799999999999233</v>
+      </c>
+      <c r="B570">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <f t="shared" si="8"/>
+        <v>5.6899999999999231</v>
+      </c>
+      <c r="B571">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <f t="shared" si="8"/>
+        <v>5.6999999999999229</v>
+      </c>
+      <c r="B572">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <f t="shared" si="8"/>
+        <v>5.7099999999999227</v>
+      </c>
+      <c r="B573">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <f t="shared" si="8"/>
+        <v>5.7199999999999225</v>
+      </c>
+      <c r="B574">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <f t="shared" si="8"/>
+        <v>5.7299999999999223</v>
+      </c>
+      <c r="B575">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <f t="shared" si="8"/>
+        <v>5.7399999999999221</v>
+      </c>
+      <c r="B576">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <f t="shared" si="8"/>
+        <v>5.7499999999999218</v>
+      </c>
+      <c r="B577">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <f t="shared" si="8"/>
+        <v>5.7599999999999216</v>
+      </c>
+      <c r="B578">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <f t="shared" si="8"/>
+        <v>5.7699999999999214</v>
+      </c>
+      <c r="B579">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <f t="shared" ref="A580:A643" si="9">A579+0.01</f>
+        <v>5.7799999999999212</v>
+      </c>
+      <c r="B580">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <f t="shared" si="9"/>
+        <v>5.789999999999921</v>
+      </c>
+      <c r="B581">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <f t="shared" si="9"/>
+        <v>5.7999999999999208</v>
+      </c>
+      <c r="B582">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <f t="shared" si="9"/>
+        <v>5.8099999999999206</v>
+      </c>
+      <c r="B583">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <f t="shared" si="9"/>
+        <v>5.8199999999999203</v>
+      </c>
+      <c r="B584">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <f t="shared" si="9"/>
+        <v>5.8299999999999201</v>
+      </c>
+      <c r="B585">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <f t="shared" si="9"/>
+        <v>5.8399999999999199</v>
+      </c>
+      <c r="B586">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <f t="shared" si="9"/>
+        <v>5.8499999999999197</v>
+      </c>
+      <c r="B587">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <f t="shared" si="9"/>
+        <v>5.8599999999999195</v>
+      </c>
+      <c r="B588">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <f t="shared" si="9"/>
+        <v>5.8699999999999193</v>
+      </c>
+      <c r="B589">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <f t="shared" si="9"/>
+        <v>5.8799999999999191</v>
+      </c>
+      <c r="B590">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <f t="shared" si="9"/>
+        <v>5.8899999999999189</v>
+      </c>
+      <c r="B591">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <f t="shared" si="9"/>
+        <v>5.8999999999999186</v>
+      </c>
+      <c r="B592">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <f t="shared" si="9"/>
+        <v>5.9099999999999184</v>
+      </c>
+      <c r="B593">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <f t="shared" si="9"/>
+        <v>5.9199999999999182</v>
+      </c>
+      <c r="B594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <f t="shared" si="9"/>
+        <v>5.929999999999918</v>
+      </c>
+      <c r="B595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <f t="shared" si="9"/>
+        <v>5.9399999999999178</v>
+      </c>
+      <c r="B596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <f t="shared" si="9"/>
+        <v>5.9499999999999176</v>
+      </c>
+      <c r="B597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <f t="shared" si="9"/>
+        <v>5.9599999999999174</v>
+      </c>
+      <c r="B598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <f t="shared" si="9"/>
+        <v>5.9699999999999172</v>
+      </c>
+      <c r="B599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <f t="shared" si="9"/>
+        <v>5.9799999999999169</v>
+      </c>
+      <c r="B600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <f t="shared" si="9"/>
+        <v>5.9899999999999167</v>
+      </c>
+      <c r="B601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <f t="shared" si="9"/>
+        <v>5.9999999999999165</v>
+      </c>
+      <c r="B602">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <f t="shared" si="9"/>
+        <v>6.0099999999999163</v>
+      </c>
+      <c r="B603">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <f t="shared" si="9"/>
+        <v>6.0199999999999161</v>
+      </c>
+      <c r="B604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <f t="shared" si="9"/>
+        <v>6.0299999999999159</v>
+      </c>
+      <c r="B605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <f t="shared" si="9"/>
+        <v>6.0399999999999157</v>
+      </c>
+      <c r="B606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <f t="shared" si="9"/>
+        <v>6.0499999999999154</v>
+      </c>
+      <c r="B607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <f t="shared" si="9"/>
+        <v>6.0599999999999152</v>
+      </c>
+      <c r="B608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <f t="shared" si="9"/>
+        <v>6.069999999999915</v>
+      </c>
+      <c r="B609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <f t="shared" si="9"/>
+        <v>6.0799999999999148</v>
+      </c>
+      <c r="B610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <f t="shared" si="9"/>
+        <v>6.0899999999999146</v>
+      </c>
+      <c r="B611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <f t="shared" si="9"/>
+        <v>6.0999999999999144</v>
+      </c>
+      <c r="B612">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <f t="shared" si="9"/>
+        <v>6.1099999999999142</v>
+      </c>
+      <c r="B613">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <f t="shared" si="9"/>
+        <v>6.119999999999914</v>
+      </c>
+      <c r="B614">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <f t="shared" si="9"/>
+        <v>6.1299999999999137</v>
+      </c>
+      <c r="B615">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <f t="shared" si="9"/>
+        <v>6.1399999999999135</v>
+      </c>
+      <c r="B616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <f t="shared" si="9"/>
+        <v>6.1499999999999133</v>
+      </c>
+      <c r="B617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <f t="shared" si="9"/>
+        <v>6.1599999999999131</v>
+      </c>
+      <c r="B618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <f t="shared" si="9"/>
+        <v>6.1699999999999129</v>
+      </c>
+      <c r="B619">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <f t="shared" si="9"/>
+        <v>6.1799999999999127</v>
+      </c>
+      <c r="B620">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <f t="shared" si="9"/>
+        <v>6.1899999999999125</v>
+      </c>
+      <c r="B621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <f t="shared" si="9"/>
+        <v>6.1999999999999122</v>
+      </c>
+      <c r="B622">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <f t="shared" si="9"/>
+        <v>6.209999999999912</v>
+      </c>
+      <c r="B623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <f t="shared" si="9"/>
+        <v>6.2199999999999118</v>
+      </c>
+      <c r="B624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <f t="shared" si="9"/>
+        <v>6.2299999999999116</v>
+      </c>
+      <c r="B625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <f t="shared" si="9"/>
+        <v>6.2399999999999114</v>
+      </c>
+      <c r="B626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <f t="shared" si="9"/>
+        <v>6.2499999999999112</v>
+      </c>
+      <c r="B627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <f t="shared" si="9"/>
+        <v>6.259999999999911</v>
+      </c>
+      <c r="B628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <f t="shared" si="9"/>
+        <v>6.2699999999999108</v>
+      </c>
+      <c r="B629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <f t="shared" si="9"/>
+        <v>6.2799999999999105</v>
+      </c>
+      <c r="B630">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <f t="shared" si="9"/>
+        <v>6.2899999999999103</v>
+      </c>
+      <c r="B631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <f t="shared" si="9"/>
+        <v>6.2999999999999101</v>
+      </c>
+      <c r="B632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <f t="shared" si="9"/>
+        <v>6.3099999999999099</v>
+      </c>
+      <c r="B633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <f t="shared" si="9"/>
+        <v>6.3199999999999097</v>
+      </c>
+      <c r="B634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <f t="shared" si="9"/>
+        <v>6.3299999999999095</v>
+      </c>
+      <c r="B635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <f t="shared" si="9"/>
+        <v>6.3399999999999093</v>
+      </c>
+      <c r="B636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <f t="shared" si="9"/>
+        <v>6.3499999999999091</v>
+      </c>
+      <c r="B637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <f t="shared" si="9"/>
+        <v>6.3599999999999088</v>
+      </c>
+      <c r="B638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <f t="shared" si="9"/>
+        <v>6.3699999999999086</v>
+      </c>
+      <c r="B639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <f t="shared" si="9"/>
+        <v>6.3799999999999084</v>
+      </c>
+      <c r="B640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <f t="shared" si="9"/>
+        <v>6.3899999999999082</v>
+      </c>
+      <c r="B641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <f t="shared" si="9"/>
+        <v>6.399999999999908</v>
+      </c>
+      <c r="B642">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <f t="shared" si="9"/>
+        <v>6.4099999999999078</v>
+      </c>
+      <c r="B643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <f t="shared" ref="A644:A707" si="10">A643+0.01</f>
+        <v>6.4199999999999076</v>
+      </c>
+      <c r="B644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <f t="shared" si="10"/>
+        <v>6.4299999999999073</v>
+      </c>
+      <c r="B645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <f t="shared" si="10"/>
+        <v>6.4399999999999071</v>
+      </c>
+      <c r="B646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <f t="shared" si="10"/>
+        <v>6.4499999999999069</v>
+      </c>
+      <c r="B647">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <f t="shared" si="10"/>
+        <v>6.4599999999999067</v>
+      </c>
+      <c r="B648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <f t="shared" si="10"/>
+        <v>6.4699999999999065</v>
+      </c>
+      <c r="B649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <f t="shared" si="10"/>
+        <v>6.4799999999999063</v>
+      </c>
+      <c r="B650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <f t="shared" si="10"/>
+        <v>6.4899999999999061</v>
+      </c>
+      <c r="B651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <f t="shared" si="10"/>
+        <v>6.4999999999999059</v>
+      </c>
+      <c r="B652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <f t="shared" si="10"/>
+        <v>6.5099999999999056</v>
+      </c>
+      <c r="B653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A654">
+        <f t="shared" si="10"/>
+        <v>6.5199999999999054</v>
+      </c>
+      <c r="B654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A655">
+        <f t="shared" si="10"/>
+        <v>6.5299999999999052</v>
+      </c>
+      <c r="B655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A656">
+        <f t="shared" si="10"/>
+        <v>6.539999999999905</v>
+      </c>
+      <c r="B656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <f t="shared" si="10"/>
+        <v>6.5499999999999048</v>
+      </c>
+      <c r="B657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <f t="shared" si="10"/>
+        <v>6.5599999999999046</v>
+      </c>
+      <c r="B658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A659">
+        <f t="shared" si="10"/>
+        <v>6.5699999999999044</v>
+      </c>
+      <c r="B659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <f t="shared" si="10"/>
+        <v>6.5799999999999041</v>
+      </c>
+      <c r="B660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A661">
+        <f t="shared" si="10"/>
+        <v>6.5899999999999039</v>
+      </c>
+      <c r="B661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A662">
+        <f t="shared" si="10"/>
+        <v>6.5999999999999037</v>
+      </c>
+      <c r="B662">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A663">
+        <f t="shared" si="10"/>
+        <v>6.6099999999999035</v>
+      </c>
+      <c r="B663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A664">
+        <f t="shared" si="10"/>
+        <v>6.6199999999999033</v>
+      </c>
+      <c r="B664">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A665">
+        <f t="shared" si="10"/>
+        <v>6.6299999999999031</v>
+      </c>
+      <c r="B665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A666">
+        <f t="shared" si="10"/>
+        <v>6.6399999999999029</v>
+      </c>
+      <c r="B666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A667">
+        <f t="shared" si="10"/>
+        <v>6.6499999999999027</v>
+      </c>
+      <c r="B667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A668">
+        <f t="shared" si="10"/>
+        <v>6.6599999999999024</v>
+      </c>
+      <c r="B668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A669">
+        <f t="shared" si="10"/>
+        <v>6.6699999999999022</v>
+      </c>
+      <c r="B669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A670">
+        <f t="shared" si="10"/>
+        <v>6.679999999999902</v>
+      </c>
+      <c r="B670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A671">
+        <f t="shared" si="10"/>
+        <v>6.6899999999999018</v>
+      </c>
+      <c r="B671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A672">
+        <f t="shared" si="10"/>
+        <v>6.6999999999999016</v>
+      </c>
+      <c r="B672">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A673">
+        <f t="shared" si="10"/>
+        <v>6.7099999999999014</v>
+      </c>
+      <c r="B673">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A674">
+        <f t="shared" si="10"/>
+        <v>6.7199999999999012</v>
+      </c>
+      <c r="B674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A675">
+        <f t="shared" si="10"/>
+        <v>6.729999999999901</v>
+      </c>
+      <c r="B675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A676">
+        <f t="shared" si="10"/>
+        <v>6.7399999999999007</v>
+      </c>
+      <c r="B676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A677">
+        <f t="shared" si="10"/>
+        <v>6.7499999999999005</v>
+      </c>
+      <c r="B677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A678">
+        <f t="shared" si="10"/>
+        <v>6.7599999999999003</v>
+      </c>
+      <c r="B678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A679">
+        <f t="shared" si="10"/>
+        <v>6.7699999999999001</v>
+      </c>
+      <c r="B679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A680">
+        <f t="shared" si="10"/>
+        <v>6.7799999999998999</v>
+      </c>
+      <c r="B680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A681">
+        <f t="shared" si="10"/>
+        <v>6.7899999999998997</v>
+      </c>
+      <c r="B681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A682">
+        <f t="shared" si="10"/>
+        <v>6.7999999999998995</v>
+      </c>
+      <c r="B682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A683">
+        <f t="shared" si="10"/>
+        <v>6.8099999999998992</v>
+      </c>
+      <c r="B683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A684">
+        <f t="shared" si="10"/>
+        <v>6.819999999999899</v>
+      </c>
+      <c r="B684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A685">
+        <f t="shared" si="10"/>
+        <v>6.8299999999998988</v>
+      </c>
+      <c r="B685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A686">
+        <f t="shared" si="10"/>
+        <v>6.8399999999998986</v>
+      </c>
+      <c r="B686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A687">
+        <f t="shared" si="10"/>
+        <v>6.8499999999998984</v>
+      </c>
+      <c r="B687">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A688">
+        <f t="shared" si="10"/>
+        <v>6.8599999999998982</v>
+      </c>
+      <c r="B688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A689">
+        <f t="shared" si="10"/>
+        <v>6.869999999999898</v>
+      </c>
+      <c r="B689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A690">
+        <f t="shared" si="10"/>
+        <v>6.8799999999998978</v>
+      </c>
+      <c r="B690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A691">
+        <f t="shared" si="10"/>
+        <v>6.8899999999998975</v>
+      </c>
+      <c r="B691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A692">
+        <f t="shared" si="10"/>
+        <v>6.8999999999998973</v>
+      </c>
+      <c r="B692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A693">
+        <f t="shared" si="10"/>
+        <v>6.9099999999998971</v>
+      </c>
+      <c r="B693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A694">
+        <f t="shared" si="10"/>
+        <v>6.9199999999998969</v>
+      </c>
+      <c r="B694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A695">
+        <f t="shared" si="10"/>
+        <v>6.9299999999998967</v>
+      </c>
+      <c r="B695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A696">
+        <f t="shared" si="10"/>
+        <v>6.9399999999998965</v>
+      </c>
+      <c r="B696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A697">
+        <f t="shared" si="10"/>
+        <v>6.9499999999998963</v>
+      </c>
+      <c r="B697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A698">
+        <f t="shared" si="10"/>
+        <v>6.959999999999896</v>
+      </c>
+      <c r="B698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A699">
+        <f t="shared" si="10"/>
+        <v>6.9699999999998958</v>
+      </c>
+      <c r="B699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A700">
+        <f t="shared" si="10"/>
+        <v>6.9799999999998956</v>
+      </c>
+      <c r="B700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A701">
+        <f t="shared" si="10"/>
+        <v>6.9899999999998954</v>
+      </c>
+      <c r="B701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A702">
+        <f t="shared" si="10"/>
+        <v>6.9999999999998952</v>
+      </c>
+      <c r="B702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A703">
+        <f t="shared" si="10"/>
+        <v>7.009999999999895</v>
+      </c>
+      <c r="B703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A704">
+        <f t="shared" si="10"/>
+        <v>7.0199999999998948</v>
+      </c>
+      <c r="B704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A705">
+        <f t="shared" si="10"/>
+        <v>7.0299999999998946</v>
+      </c>
+      <c r="B705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A706">
+        <f t="shared" si="10"/>
+        <v>7.0399999999998943</v>
+      </c>
+      <c r="B706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A707">
+        <f t="shared" si="10"/>
+        <v>7.0499999999998941</v>
+      </c>
+      <c r="B707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A708">
+        <f t="shared" ref="A708:A771" si="11">A707+0.01</f>
+        <v>7.0599999999998939</v>
+      </c>
+      <c r="B708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A709">
+        <f t="shared" si="11"/>
+        <v>7.0699999999998937</v>
+      </c>
+      <c r="B709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A710">
+        <f t="shared" si="11"/>
+        <v>7.0799999999998935</v>
+      </c>
+      <c r="B710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A711">
+        <f t="shared" si="11"/>
+        <v>7.0899999999998933</v>
+      </c>
+      <c r="B711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A712">
+        <f t="shared" si="11"/>
+        <v>7.0999999999998931</v>
+      </c>
+      <c r="B712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A713">
+        <f t="shared" si="11"/>
+        <v>7.1099999999998929</v>
+      </c>
+      <c r="B713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A714">
+        <f t="shared" si="11"/>
+        <v>7.1199999999998926</v>
+      </c>
+      <c r="B714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A715">
+        <f t="shared" si="11"/>
+        <v>7.1299999999998924</v>
+      </c>
+      <c r="B715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A716">
+        <f t="shared" si="11"/>
+        <v>7.1399999999998922</v>
+      </c>
+      <c r="B716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A717">
+        <f t="shared" si="11"/>
+        <v>7.149999999999892</v>
+      </c>
+      <c r="B717">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A718">
+        <f t="shared" si="11"/>
+        <v>7.1599999999998918</v>
+      </c>
+      <c r="B718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A719">
+        <f t="shared" si="11"/>
+        <v>7.1699999999998916</v>
+      </c>
+      <c r="B719">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A720">
+        <f t="shared" si="11"/>
+        <v>7.1799999999998914</v>
+      </c>
+      <c r="B720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A721">
+        <f t="shared" si="11"/>
+        <v>7.1899999999998911</v>
+      </c>
+      <c r="B721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A722">
+        <f t="shared" si="11"/>
+        <v>7.1999999999998909</v>
+      </c>
+      <c r="B722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A723">
+        <f t="shared" si="11"/>
+        <v>7.2099999999998907</v>
+      </c>
+      <c r="B723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A724">
+        <f t="shared" si="11"/>
+        <v>7.2199999999998905</v>
+      </c>
+      <c r="B724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A725">
+        <f t="shared" si="11"/>
+        <v>7.2299999999998903</v>
+      </c>
+      <c r="B725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A726">
+        <f t="shared" si="11"/>
+        <v>7.2399999999998901</v>
+      </c>
+      <c r="B726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A727">
+        <f t="shared" si="11"/>
+        <v>7.2499999999998899</v>
+      </c>
+      <c r="B727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A728">
+        <f t="shared" si="11"/>
+        <v>7.2599999999998897</v>
+      </c>
+      <c r="B728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A729">
+        <f t="shared" si="11"/>
+        <v>7.2699999999998894</v>
+      </c>
+      <c r="B729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A730">
+        <f t="shared" si="11"/>
+        <v>7.2799999999998892</v>
+      </c>
+      <c r="B730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A731">
+        <f t="shared" si="11"/>
+        <v>7.289999999999889</v>
+      </c>
+      <c r="B731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A732">
+        <f t="shared" si="11"/>
+        <v>7.2999999999998888</v>
+      </c>
+      <c r="B732">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A733">
+        <f t="shared" si="11"/>
+        <v>7.3099999999998886</v>
+      </c>
+      <c r="B733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A734">
+        <f t="shared" si="11"/>
+        <v>7.3199999999998884</v>
+      </c>
+      <c r="B734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A735">
+        <f t="shared" si="11"/>
+        <v>7.3299999999998882</v>
+      </c>
+      <c r="B735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A736">
+        <f t="shared" si="11"/>
+        <v>7.3399999999998879</v>
+      </c>
+      <c r="B736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A737">
+        <f t="shared" si="11"/>
+        <v>7.3499999999998877</v>
+      </c>
+      <c r="B737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A738">
+        <f t="shared" si="11"/>
+        <v>7.3599999999998875</v>
+      </c>
+      <c r="B738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A739">
+        <f t="shared" si="11"/>
+        <v>7.3699999999998873</v>
+      </c>
+      <c r="B739">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A740">
+        <f t="shared" si="11"/>
+        <v>7.3799999999998871</v>
+      </c>
+      <c r="B740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A741">
+        <f t="shared" si="11"/>
+        <v>7.3899999999998869</v>
+      </c>
+      <c r="B741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A742">
+        <f t="shared" si="11"/>
+        <v>7.3999999999998867</v>
+      </c>
+      <c r="B742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A743">
+        <f t="shared" si="11"/>
+        <v>7.4099999999998865</v>
+      </c>
+      <c r="B743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A744">
+        <f t="shared" si="11"/>
+        <v>7.4199999999998862</v>
+      </c>
+      <c r="B744">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A745">
+        <f t="shared" si="11"/>
+        <v>7.429999999999886</v>
+      </c>
+      <c r="B745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A746">
+        <f t="shared" si="11"/>
+        <v>7.4399999999998858</v>
+      </c>
+      <c r="B746">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A747">
+        <f t="shared" si="11"/>
+        <v>7.4499999999998856</v>
+      </c>
+      <c r="B747">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A748">
+        <f t="shared" si="11"/>
+        <v>7.4599999999998854</v>
+      </c>
+      <c r="B748">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A749">
+        <f t="shared" si="11"/>
+        <v>7.4699999999998852</v>
+      </c>
+      <c r="B749">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A750">
+        <f t="shared" si="11"/>
+        <v>7.479999999999885</v>
+      </c>
+      <c r="B750">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A751">
+        <f t="shared" si="11"/>
+        <v>7.4899999999998847</v>
+      </c>
+      <c r="B751">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A752">
+        <f t="shared" si="11"/>
+        <v>7.4999999999998845</v>
+      </c>
+      <c r="B752">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A753">
+        <f t="shared" si="11"/>
+        <v>7.5099999999998843</v>
+      </c>
+      <c r="B753">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A754">
+        <f t="shared" si="11"/>
+        <v>7.5199999999998841</v>
+      </c>
+      <c r="B754">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A755">
+        <f t="shared" si="11"/>
+        <v>7.5299999999998839</v>
+      </c>
+      <c r="B755">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A756">
+        <f t="shared" si="11"/>
+        <v>7.5399999999998837</v>
+      </c>
+      <c r="B756">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A757">
+        <f t="shared" si="11"/>
+        <v>7.5499999999998835</v>
+      </c>
+      <c r="B757">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A758">
+        <f t="shared" si="11"/>
+        <v>7.5599999999998833</v>
+      </c>
+      <c r="B758">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A759">
+        <f t="shared" si="11"/>
+        <v>7.569999999999883</v>
+      </c>
+      <c r="B759">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A760">
+        <f t="shared" si="11"/>
+        <v>7.5799999999998828</v>
+      </c>
+      <c r="B760">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A761">
+        <f t="shared" si="11"/>
+        <v>7.5899999999998826</v>
+      </c>
+      <c r="B761">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A762">
+        <f t="shared" si="11"/>
+        <v>7.5999999999998824</v>
+      </c>
+      <c r="B762">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A763">
+        <f t="shared" si="11"/>
+        <v>7.6099999999998822</v>
+      </c>
+      <c r="B763">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A764">
+        <f t="shared" si="11"/>
+        <v>7.619999999999882</v>
+      </c>
+      <c r="B764">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A765">
+        <f t="shared" si="11"/>
+        <v>7.6299999999998818</v>
+      </c>
+      <c r="B765">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A766">
+        <f t="shared" si="11"/>
+        <v>7.6399999999998816</v>
+      </c>
+      <c r="B766">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A767">
+        <f t="shared" si="11"/>
+        <v>7.6499999999998813</v>
+      </c>
+      <c r="B767">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A768">
+        <f t="shared" si="11"/>
+        <v>7.6599999999998811</v>
+      </c>
+      <c r="B768">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A769">
+        <f t="shared" si="11"/>
+        <v>7.6699999999998809</v>
+      </c>
+      <c r="B769">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A770">
+        <f t="shared" si="11"/>
+        <v>7.6799999999998807</v>
+      </c>
+      <c r="B770">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A771">
+        <f t="shared" si="11"/>
+        <v>7.6899999999998805</v>
+      </c>
+      <c r="B771">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A772">
+        <f t="shared" ref="A772:A835" si="12">A771+0.01</f>
+        <v>7.6999999999998803</v>
+      </c>
+      <c r="B772">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A773">
+        <f t="shared" si="12"/>
+        <v>7.7099999999998801</v>
+      </c>
+      <c r="B773">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A774">
+        <f t="shared" si="12"/>
+        <v>7.7199999999998798</v>
+      </c>
+      <c r="B774">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A775">
+        <f t="shared" si="12"/>
+        <v>7.7299999999998796</v>
+      </c>
+      <c r="B775">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A776">
+        <f t="shared" si="12"/>
+        <v>7.7399999999998794</v>
+      </c>
+      <c r="B776">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A777">
+        <f t="shared" si="12"/>
+        <v>7.7499999999998792</v>
+      </c>
+      <c r="B777">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A778">
+        <f t="shared" si="12"/>
+        <v>7.759999999999879</v>
+      </c>
+      <c r="B778">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A779">
+        <f t="shared" si="12"/>
+        <v>7.7699999999998788</v>
+      </c>
+      <c r="B779">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A780">
+        <f t="shared" si="12"/>
+        <v>7.7799999999998786</v>
+      </c>
+      <c r="B780">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A781">
+        <f t="shared" si="12"/>
+        <v>7.7899999999998784</v>
+      </c>
+      <c r="B781">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A782">
+        <f t="shared" si="12"/>
+        <v>7.7999999999998781</v>
+      </c>
+      <c r="B782">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A783">
+        <f t="shared" si="12"/>
+        <v>7.8099999999998779</v>
+      </c>
+      <c r="B783">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A784">
+        <f t="shared" si="12"/>
+        <v>7.8199999999998777</v>
+      </c>
+      <c r="B784">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A785">
+        <f t="shared" si="12"/>
+        <v>7.8299999999998775</v>
+      </c>
+      <c r="B785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A786">
+        <f t="shared" si="12"/>
+        <v>7.8399999999998773</v>
+      </c>
+      <c r="B786">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A787">
+        <f t="shared" si="12"/>
+        <v>7.8499999999998771</v>
+      </c>
+      <c r="B787">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A788">
+        <f t="shared" si="12"/>
+        <v>7.8599999999998769</v>
+      </c>
+      <c r="B788">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A789">
+        <f t="shared" si="12"/>
+        <v>7.8699999999998766</v>
+      </c>
+      <c r="B789">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A790">
+        <f t="shared" si="12"/>
+        <v>7.8799999999998764</v>
+      </c>
+      <c r="B790">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A791">
+        <f t="shared" si="12"/>
+        <v>7.8899999999998762</v>
+      </c>
+      <c r="B791">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A792">
+        <f t="shared" si="12"/>
+        <v>7.899999999999876</v>
+      </c>
+      <c r="B792">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A793">
+        <f t="shared" si="12"/>
+        <v>7.9099999999998758</v>
+      </c>
+      <c r="B793">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A794">
+        <f t="shared" si="12"/>
+        <v>7.9199999999998756</v>
+      </c>
+      <c r="B794">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A795">
+        <f t="shared" si="12"/>
+        <v>7.9299999999998754</v>
+      </c>
+      <c r="B795">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A796">
+        <f t="shared" si="12"/>
+        <v>7.9399999999998752</v>
+      </c>
+      <c r="B796">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A797">
+        <f t="shared" si="12"/>
+        <v>7.9499999999998749</v>
+      </c>
+      <c r="B797">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A798">
+        <f t="shared" si="12"/>
+        <v>7.9599999999998747</v>
+      </c>
+      <c r="B798">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A799">
+        <f t="shared" si="12"/>
+        <v>7.9699999999998745</v>
+      </c>
+      <c r="B799">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A800">
+        <f t="shared" si="12"/>
+        <v>7.9799999999998743</v>
+      </c>
+      <c r="B800">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A801">
+        <f t="shared" si="12"/>
+        <v>7.9899999999998741</v>
+      </c>
+      <c r="B801">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A802">
+        <f t="shared" si="12"/>
+        <v>7.9999999999998739</v>
+      </c>
+      <c r="B802">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A803">
+        <f t="shared" si="12"/>
+        <v>8.0099999999998737</v>
+      </c>
+      <c r="B803">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A804">
+        <f t="shared" si="12"/>
+        <v>8.0199999999998735</v>
+      </c>
+      <c r="B804">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A805">
+        <f t="shared" si="12"/>
+        <v>8.0299999999998732</v>
+      </c>
+      <c r="B805">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A806">
+        <f t="shared" si="12"/>
+        <v>8.039999999999873</v>
+      </c>
+      <c r="B806">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A807">
+        <f t="shared" si="12"/>
+        <v>8.0499999999998728</v>
+      </c>
+      <c r="B807">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A808">
+        <f t="shared" si="12"/>
+        <v>8.0599999999998726</v>
+      </c>
+      <c r="B808">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A809">
+        <f t="shared" si="12"/>
+        <v>8.0699999999998724</v>
+      </c>
+      <c r="B809">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A810">
+        <f t="shared" si="12"/>
+        <v>8.0799999999998722</v>
+      </c>
+      <c r="B810">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A811">
+        <f t="shared" si="12"/>
+        <v>8.089999999999872</v>
+      </c>
+      <c r="B811">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A812">
+        <f t="shared" si="12"/>
+        <v>8.0999999999998717</v>
+      </c>
+      <c r="B812">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A813">
+        <f t="shared" si="12"/>
+        <v>8.1099999999998715</v>
+      </c>
+      <c r="B813">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A814">
+        <f t="shared" si="12"/>
+        <v>8.1199999999998713</v>
+      </c>
+      <c r="B814">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A815">
+        <f t="shared" si="12"/>
+        <v>8.1299999999998711</v>
+      </c>
+      <c r="B815">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A816">
+        <f t="shared" si="12"/>
+        <v>8.1399999999998709</v>
+      </c>
+      <c r="B816">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A817">
+        <f t="shared" si="12"/>
+        <v>8.1499999999998707</v>
+      </c>
+      <c r="B817">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A818">
+        <f t="shared" si="12"/>
+        <v>8.1599999999998705</v>
+      </c>
+      <c r="B818">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A819">
+        <f t="shared" si="12"/>
+        <v>8.1699999999998703</v>
+      </c>
+      <c r="B819">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A820">
+        <f t="shared" si="12"/>
+        <v>8.17999999999987</v>
+      </c>
+      <c r="B820">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A821">
+        <f t="shared" si="12"/>
+        <v>8.1899999999998698</v>
+      </c>
+      <c r="B821">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A822">
+        <f t="shared" si="12"/>
+        <v>8.1999999999998696</v>
+      </c>
+      <c r="B822">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A823">
+        <f t="shared" si="12"/>
+        <v>8.2099999999998694</v>
+      </c>
+      <c r="B823">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A824">
+        <f t="shared" si="12"/>
+        <v>8.2199999999998692</v>
+      </c>
+      <c r="B824">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A825">
+        <f t="shared" si="12"/>
+        <v>8.229999999999869</v>
+      </c>
+      <c r="B825">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A826">
+        <f t="shared" si="12"/>
+        <v>8.2399999999998688</v>
+      </c>
+      <c r="B826">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A827">
+        <f t="shared" si="12"/>
+        <v>8.2499999999998685</v>
+      </c>
+      <c r="B827">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A828">
+        <f t="shared" si="12"/>
+        <v>8.2599999999998683</v>
+      </c>
+      <c r="B828">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A829">
+        <f t="shared" si="12"/>
+        <v>8.2699999999998681</v>
+      </c>
+      <c r="B829">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A830">
+        <f t="shared" si="12"/>
+        <v>8.2799999999998679</v>
+      </c>
+      <c r="B830">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A831">
+        <f t="shared" si="12"/>
+        <v>8.2899999999998677</v>
+      </c>
+      <c r="B831">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A832">
+        <f t="shared" si="12"/>
+        <v>8.2999999999998675</v>
+      </c>
+      <c r="B832">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A833">
+        <f t="shared" si="12"/>
+        <v>8.3099999999998673</v>
+      </c>
+      <c r="B833">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A834">
+        <f t="shared" si="12"/>
+        <v>8.3199999999998671</v>
+      </c>
+      <c r="B834">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A835">
+        <f t="shared" si="12"/>
+        <v>8.3299999999998668</v>
+      </c>
+      <c r="B835">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A836">
+        <f t="shared" ref="A836:A899" si="13">A835+0.01</f>
+        <v>8.3399999999998666</v>
+      </c>
+      <c r="B836">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A837">
+        <f t="shared" si="13"/>
+        <v>8.3499999999998664</v>
+      </c>
+      <c r="B837">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A838">
+        <f t="shared" si="13"/>
+        <v>8.3599999999998662</v>
+      </c>
+      <c r="B838">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A839">
+        <f t="shared" si="13"/>
+        <v>8.369999999999866</v>
+      </c>
+      <c r="B839">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A840">
+        <f t="shared" si="13"/>
+        <v>8.3799999999998658</v>
+      </c>
+      <c r="B840">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A841">
+        <f t="shared" si="13"/>
+        <v>8.3899999999998656</v>
+      </c>
+      <c r="B841">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A842">
+        <f t="shared" si="13"/>
+        <v>8.3999999999998654</v>
+      </c>
+      <c r="B842">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A843">
+        <f t="shared" si="13"/>
+        <v>8.4099999999998651</v>
+      </c>
+      <c r="B843">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A844">
+        <f t="shared" si="13"/>
+        <v>8.4199999999998649</v>
+      </c>
+      <c r="B844">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A845">
+        <f t="shared" si="13"/>
+        <v>8.4299999999998647</v>
+      </c>
+      <c r="B845">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A846">
+        <f t="shared" si="13"/>
+        <v>8.4399999999998645</v>
+      </c>
+      <c r="B846">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A847">
+        <f t="shared" si="13"/>
+        <v>8.4499999999998643</v>
+      </c>
+      <c r="B847">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A848">
+        <f t="shared" si="13"/>
+        <v>8.4599999999998641</v>
+      </c>
+      <c r="B848">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A849">
+        <f t="shared" si="13"/>
+        <v>8.4699999999998639</v>
+      </c>
+      <c r="B849">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A850">
+        <f t="shared" si="13"/>
+        <v>8.4799999999998636</v>
+      </c>
+      <c r="B850">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A851">
+        <f t="shared" si="13"/>
+        <v>8.4899999999998634</v>
+      </c>
+      <c r="B851">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A852">
+        <f t="shared" si="13"/>
+        <v>8.4999999999998632</v>
+      </c>
+      <c r="B852">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A853">
+        <f t="shared" si="13"/>
+        <v>8.509999999999863</v>
+      </c>
+      <c r="B853">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A854">
+        <f t="shared" si="13"/>
+        <v>8.5199999999998628</v>
+      </c>
+      <c r="B854">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A855">
+        <f t="shared" si="13"/>
+        <v>8.5299999999998626</v>
+      </c>
+      <c r="B855">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A856">
+        <f t="shared" si="13"/>
+        <v>8.5399999999998624</v>
+      </c>
+      <c r="B856">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A857">
+        <f t="shared" si="13"/>
+        <v>8.5499999999998622</v>
+      </c>
+      <c r="B857">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A858">
+        <f t="shared" si="13"/>
+        <v>8.5599999999998619</v>
+      </c>
+      <c r="B858">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A859">
+        <f t="shared" si="13"/>
+        <v>8.5699999999998617</v>
+      </c>
+      <c r="B859">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A860">
+        <f t="shared" si="13"/>
+        <v>8.5799999999998615</v>
+      </c>
+      <c r="B860">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A861">
+        <f t="shared" si="13"/>
+        <v>8.5899999999998613</v>
+      </c>
+      <c r="B861">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A862">
+        <f t="shared" si="13"/>
+        <v>8.5999999999998611</v>
+      </c>
+      <c r="B862">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A863">
+        <f t="shared" si="13"/>
+        <v>8.6099999999998609</v>
+      </c>
+      <c r="B863">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A864">
+        <f t="shared" si="13"/>
+        <v>8.6199999999998607</v>
+      </c>
+      <c r="B864">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A865">
+        <f t="shared" si="13"/>
+        <v>8.6299999999998604</v>
+      </c>
+      <c r="B865">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A866">
+        <f t="shared" si="13"/>
+        <v>8.6399999999998602</v>
+      </c>
+      <c r="B866">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A867">
+        <f t="shared" si="13"/>
+        <v>8.64999999999986</v>
+      </c>
+      <c r="B867">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A868">
+        <f t="shared" si="13"/>
+        <v>8.6599999999998598</v>
+      </c>
+      <c r="B868">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A869">
+        <f t="shared" si="13"/>
+        <v>8.6699999999998596</v>
+      </c>
+      <c r="B869">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A870">
+        <f t="shared" si="13"/>
+        <v>8.6799999999998594</v>
+      </c>
+      <c r="B870">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A871">
+        <f t="shared" si="13"/>
+        <v>8.6899999999998592</v>
+      </c>
+      <c r="B871">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A872">
+        <f t="shared" si="13"/>
+        <v>8.699999999999859</v>
+      </c>
+      <c r="B872">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A873">
+        <f t="shared" si="13"/>
+        <v>8.7099999999998587</v>
+      </c>
+      <c r="B873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A874">
+        <f t="shared" si="13"/>
+        <v>8.7199999999998585</v>
+      </c>
+      <c r="B874">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A875">
+        <f t="shared" si="13"/>
+        <v>8.7299999999998583</v>
+      </c>
+      <c r="B875">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A876">
+        <f t="shared" si="13"/>
+        <v>8.7399999999998581</v>
+      </c>
+      <c r="B876">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A877">
+        <f t="shared" si="13"/>
+        <v>8.7499999999998579</v>
+      </c>
+      <c r="B877">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A878">
+        <f t="shared" si="13"/>
+        <v>8.7599999999998577</v>
+      </c>
+      <c r="B878">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A879">
+        <f t="shared" si="13"/>
+        <v>8.7699999999998575</v>
+      </c>
+      <c r="B879">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A880">
+        <f t="shared" si="13"/>
+        <v>8.7799999999998573</v>
+      </c>
+      <c r="B880">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A881">
+        <f t="shared" si="13"/>
+        <v>8.789999999999857</v>
+      </c>
+      <c r="B881">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A882">
+        <f t="shared" si="13"/>
+        <v>8.7999999999998568</v>
+      </c>
+      <c r="B882">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A883">
+        <f t="shared" si="13"/>
+        <v>8.8099999999998566</v>
+      </c>
+      <c r="B883">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A884">
+        <f t="shared" si="13"/>
+        <v>8.8199999999998564</v>
+      </c>
+      <c r="B884">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A885">
+        <f t="shared" si="13"/>
+        <v>8.8299999999998562</v>
+      </c>
+      <c r="B885">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A886">
+        <f t="shared" si="13"/>
+        <v>8.839999999999856</v>
+      </c>
+      <c r="B886">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A887">
+        <f t="shared" si="13"/>
+        <v>8.8499999999998558</v>
+      </c>
+      <c r="B887">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A888">
+        <f t="shared" si="13"/>
+        <v>8.8599999999998555</v>
+      </c>
+      <c r="B888">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A889">
+        <f t="shared" si="13"/>
+        <v>8.8699999999998553</v>
+      </c>
+      <c r="B889">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A890">
+        <f t="shared" si="13"/>
+        <v>8.8799999999998551</v>
+      </c>
+      <c r="B890">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A891">
+        <f t="shared" si="13"/>
+        <v>8.8899999999998549</v>
+      </c>
+      <c r="B891">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A892">
+        <f t="shared" si="13"/>
+        <v>8.8999999999998547</v>
+      </c>
+      <c r="B892">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A893">
+        <f t="shared" si="13"/>
+        <v>8.9099999999998545</v>
+      </c>
+      <c r="B893">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A894">
+        <f t="shared" si="13"/>
+        <v>8.9199999999998543</v>
+      </c>
+      <c r="B894">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A895">
+        <f t="shared" si="13"/>
+        <v>8.9299999999998541</v>
+      </c>
+      <c r="B895">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A896">
+        <f t="shared" si="13"/>
+        <v>8.9399999999998538</v>
+      </c>
+      <c r="B896">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A897">
+        <f t="shared" si="13"/>
+        <v>8.9499999999998536</v>
+      </c>
+      <c r="B897">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A898">
+        <f t="shared" si="13"/>
+        <v>8.9599999999998534</v>
+      </c>
+      <c r="B898">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A899">
+        <f t="shared" si="13"/>
+        <v>8.9699999999998532</v>
+      </c>
+      <c r="B899">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A900">
+        <f t="shared" ref="A900:A963" si="14">A899+0.01</f>
+        <v>8.979999999999853</v>
+      </c>
+      <c r="B900">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A901">
+        <f t="shared" si="14"/>
+        <v>8.9899999999998528</v>
+      </c>
+      <c r="B901">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A902">
+        <f t="shared" si="14"/>
+        <v>8.9999999999998526</v>
+      </c>
+      <c r="B902">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A903">
+        <f t="shared" si="14"/>
+        <v>9.0099999999998523</v>
+      </c>
+      <c r="B903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A904">
+        <f t="shared" si="14"/>
+        <v>9.0199999999998521</v>
+      </c>
+      <c r="B904">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A905">
+        <f t="shared" si="14"/>
+        <v>9.0299999999998519</v>
+      </c>
+      <c r="B905">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A906">
+        <f t="shared" si="14"/>
+        <v>9.0399999999998517</v>
+      </c>
+      <c r="B906">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A907">
+        <f t="shared" si="14"/>
+        <v>9.0499999999998515</v>
+      </c>
+      <c r="B907">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A908">
+        <f t="shared" si="14"/>
+        <v>9.0599999999998513</v>
+      </c>
+      <c r="B908">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A909">
+        <f t="shared" si="14"/>
+        <v>9.0699999999998511</v>
+      </c>
+      <c r="B909">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A910">
+        <f t="shared" si="14"/>
+        <v>9.0799999999998509</v>
+      </c>
+      <c r="B910">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A911">
+        <f t="shared" si="14"/>
+        <v>9.0899999999998506</v>
+      </c>
+      <c r="B911">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A912">
+        <f t="shared" si="14"/>
+        <v>9.0999999999998504</v>
+      </c>
+      <c r="B912">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A913">
+        <f t="shared" si="14"/>
+        <v>9.1099999999998502</v>
+      </c>
+      <c r="B913">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A914">
+        <f t="shared" si="14"/>
+        <v>9.11999999999985</v>
+      </c>
+      <c r="B914">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A915">
+        <f t="shared" si="14"/>
+        <v>9.1299999999998498</v>
+      </c>
+      <c r="B915">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A916">
+        <f t="shared" si="14"/>
+        <v>9.1399999999998496</v>
+      </c>
+      <c r="B916">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A917">
+        <f t="shared" si="14"/>
+        <v>9.1499999999998494</v>
+      </c>
+      <c r="B917">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A918">
+        <f t="shared" si="14"/>
+        <v>9.1599999999998492</v>
+      </c>
+      <c r="B918">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A919">
+        <f t="shared" si="14"/>
+        <v>9.1699999999998489</v>
+      </c>
+      <c r="B919">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A920">
+        <f t="shared" si="14"/>
+        <v>9.1799999999998487</v>
+      </c>
+      <c r="B920">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A921">
+        <f t="shared" si="14"/>
+        <v>9.1899999999998485</v>
+      </c>
+      <c r="B921">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A922">
+        <f t="shared" si="14"/>
+        <v>9.1999999999998483</v>
+      </c>
+      <c r="B922">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A923">
+        <f t="shared" si="14"/>
+        <v>9.2099999999998481</v>
+      </c>
+      <c r="B923">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A924">
+        <f t="shared" si="14"/>
+        <v>9.2199999999998479</v>
+      </c>
+      <c r="B924">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A925">
+        <f t="shared" si="14"/>
+        <v>9.2299999999998477</v>
+      </c>
+      <c r="B925">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A926">
+        <f t="shared" si="14"/>
+        <v>9.2399999999998474</v>
+      </c>
+      <c r="B926">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A927">
+        <f t="shared" si="14"/>
+        <v>9.2499999999998472</v>
+      </c>
+      <c r="B927">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A928">
+        <f t="shared" si="14"/>
+        <v>9.259999999999847</v>
+      </c>
+      <c r="B928">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A929">
+        <f t="shared" si="14"/>
+        <v>9.2699999999998468</v>
+      </c>
+      <c r="B929">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A930">
+        <f t="shared" si="14"/>
+        <v>9.2799999999998466</v>
+      </c>
+      <c r="B930">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A931">
+        <f t="shared" si="14"/>
+        <v>9.2899999999998464</v>
+      </c>
+      <c r="B931">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A932">
+        <f t="shared" si="14"/>
+        <v>9.2999999999998462</v>
+      </c>
+      <c r="B932">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A933">
+        <f t="shared" si="14"/>
+        <v>9.309999999999846</v>
+      </c>
+      <c r="B933">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A934">
+        <f t="shared" si="14"/>
+        <v>9.3199999999998457</v>
+      </c>
+      <c r="B934">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A935">
+        <f t="shared" si="14"/>
+        <v>9.3299999999998455</v>
+      </c>
+      <c r="B935">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A936">
+        <f t="shared" si="14"/>
+        <v>9.3399999999998453</v>
+      </c>
+      <c r="B936">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A937">
+        <f t="shared" si="14"/>
+        <v>9.3499999999998451</v>
+      </c>
+      <c r="B937">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A938">
+        <f t="shared" si="14"/>
+        <v>9.3599999999998449</v>
+      </c>
+      <c r="B938">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A939">
+        <f t="shared" si="14"/>
+        <v>9.3699999999998447</v>
+      </c>
+      <c r="B939">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A940">
+        <f t="shared" si="14"/>
+        <v>9.3799999999998445</v>
+      </c>
+      <c r="B940">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A941">
+        <f t="shared" si="14"/>
+        <v>9.3899999999998442</v>
+      </c>
+      <c r="B941">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A942">
+        <f t="shared" si="14"/>
+        <v>9.399999999999844</v>
+      </c>
+      <c r="B942">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A943">
+        <f t="shared" si="14"/>
+        <v>9.4099999999998438</v>
+      </c>
+      <c r="B943">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A944">
+        <f t="shared" si="14"/>
+        <v>9.4199999999998436</v>
+      </c>
+      <c r="B944">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A945">
+        <f t="shared" si="14"/>
+        <v>9.4299999999998434</v>
+      </c>
+      <c r="B945">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A946">
+        <f t="shared" si="14"/>
+        <v>9.4399999999998432</v>
+      </c>
+      <c r="B946">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A947">
+        <f t="shared" si="14"/>
+        <v>9.449999999999843</v>
+      </c>
+      <c r="B947">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A948">
+        <f t="shared" si="14"/>
+        <v>9.4599999999998428</v>
+      </c>
+      <c r="B948">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A949">
+        <f t="shared" si="14"/>
+        <v>9.4699999999998425</v>
+      </c>
+      <c r="B949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A950">
+        <f t="shared" si="14"/>
+        <v>9.4799999999998423</v>
+      </c>
+      <c r="B950">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A951">
+        <f t="shared" si="14"/>
+        <v>9.4899999999998421</v>
+      </c>
+      <c r="B951">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A952">
+        <f t="shared" si="14"/>
+        <v>9.4999999999998419</v>
+      </c>
+      <c r="B952">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A953">
+        <f t="shared" si="14"/>
+        <v>9.5099999999998417</v>
+      </c>
+      <c r="B953">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A954">
+        <f t="shared" si="14"/>
+        <v>9.5199999999998415</v>
+      </c>
+      <c r="B954">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A955">
+        <f t="shared" si="14"/>
+        <v>9.5299999999998413</v>
+      </c>
+      <c r="B955">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A956">
+        <f t="shared" si="14"/>
+        <v>9.5399999999998411</v>
+      </c>
+      <c r="B956">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A957">
+        <f t="shared" si="14"/>
+        <v>9.5499999999998408</v>
+      </c>
+      <c r="B957">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A958">
+        <f t="shared" si="14"/>
+        <v>9.5599999999998406</v>
+      </c>
+      <c r="B958">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A959">
+        <f t="shared" si="14"/>
+        <v>9.5699999999998404</v>
+      </c>
+      <c r="B959">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A960">
+        <f t="shared" si="14"/>
+        <v>9.5799999999998402</v>
+      </c>
+      <c r="B960">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A961">
+        <f t="shared" si="14"/>
+        <v>9.58999999999984</v>
+      </c>
+      <c r="B961">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A962">
+        <f t="shared" si="14"/>
+        <v>9.5999999999998398</v>
+      </c>
+      <c r="B962">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A963">
+        <f t="shared" si="14"/>
+        <v>9.6099999999998396</v>
+      </c>
+      <c r="B963">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A964">
+        <f t="shared" ref="A964:A1000" si="15">A963+0.01</f>
+        <v>9.6199999999998393</v>
+      </c>
+      <c r="B964">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A965">
+        <f t="shared" si="15"/>
+        <v>9.6299999999998391</v>
+      </c>
+      <c r="B965">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A966">
+        <f t="shared" si="15"/>
+        <v>9.6399999999998389</v>
+      </c>
+      <c r="B966">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A967">
+        <f t="shared" si="15"/>
+        <v>9.6499999999998387</v>
+      </c>
+      <c r="B967">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A968">
+        <f t="shared" si="15"/>
+        <v>9.6599999999998385</v>
+      </c>
+      <c r="B968">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A969">
+        <f t="shared" si="15"/>
+        <v>9.6699999999998383</v>
+      </c>
+      <c r="B969">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A970">
+        <f t="shared" si="15"/>
+        <v>9.6799999999998381</v>
+      </c>
+      <c r="B970">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A971">
+        <f t="shared" si="15"/>
+        <v>9.6899999999998379</v>
+      </c>
+      <c r="B971">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A972">
+        <f t="shared" si="15"/>
+        <v>9.6999999999998376</v>
+      </c>
+      <c r="B972">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A973">
+        <f t="shared" si="15"/>
+        <v>9.7099999999998374</v>
+      </c>
+      <c r="B973">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A974">
+        <f t="shared" si="15"/>
+        <v>9.7199999999998372</v>
+      </c>
+      <c r="B974">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A975">
+        <f t="shared" si="15"/>
+        <v>9.729999999999837</v>
+      </c>
+      <c r="B975">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A976">
+        <f t="shared" si="15"/>
+        <v>9.7399999999998368</v>
+      </c>
+      <c r="B976">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A977">
+        <f t="shared" si="15"/>
+        <v>9.7499999999998366</v>
+      </c>
+      <c r="B977">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A978">
+        <f t="shared" si="15"/>
+        <v>9.7599999999998364</v>
+      </c>
+      <c r="B978">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A979">
+        <f t="shared" si="15"/>
+        <v>9.7699999999998361</v>
+      </c>
+      <c r="B979">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A980">
+        <f t="shared" si="15"/>
+        <v>9.7799999999998359</v>
+      </c>
+      <c r="B980">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A981">
+        <f t="shared" si="15"/>
+        <v>9.7899999999998357</v>
+      </c>
+      <c r="B981">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A982">
+        <f t="shared" si="15"/>
+        <v>9.7999999999998355</v>
+      </c>
+      <c r="B982">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A983">
+        <f t="shared" si="15"/>
+        <v>9.8099999999998353</v>
+      </c>
+      <c r="B983">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A984">
+        <f t="shared" si="15"/>
+        <v>9.8199999999998351</v>
+      </c>
+      <c r="B984">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A985">
+        <f t="shared" si="15"/>
+        <v>9.8299999999998349</v>
+      </c>
+      <c r="B985">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A986">
+        <f t="shared" si="15"/>
+        <v>9.8399999999998347</v>
+      </c>
+      <c r="B986">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A987">
+        <f t="shared" si="15"/>
+        <v>9.8499999999998344</v>
+      </c>
+      <c r="B987">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A988">
+        <f t="shared" si="15"/>
+        <v>9.8599999999998342</v>
+      </c>
+      <c r="B988">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A989">
+        <f t="shared" si="15"/>
+        <v>9.869999999999834</v>
+      </c>
+      <c r="B989">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A990">
+        <f t="shared" si="15"/>
+        <v>9.8799999999998338</v>
+      </c>
+      <c r="B990">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A991">
+        <f t="shared" si="15"/>
+        <v>9.8899999999998336</v>
+      </c>
+      <c r="B991">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A992">
+        <f t="shared" si="15"/>
+        <v>9.8999999999998334</v>
+      </c>
+      <c r="B992">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A993">
+        <f t="shared" si="15"/>
+        <v>9.9099999999998332</v>
+      </c>
+      <c r="B993">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A994">
+        <f t="shared" si="15"/>
+        <v>9.919999999999833</v>
+      </c>
+      <c r="B994">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A995">
+        <f t="shared" si="15"/>
+        <v>9.9299999999998327</v>
+      </c>
+      <c r="B995">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A996">
+        <f t="shared" si="15"/>
+        <v>9.9399999999998325</v>
+      </c>
+      <c r="B996">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A997">
+        <f t="shared" si="15"/>
+        <v>9.9499999999998323</v>
+      </c>
+      <c r="B997">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A998">
+        <f t="shared" si="15"/>
+        <v>9.9599999999998321</v>
+      </c>
+      <c r="B998">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A999">
+        <f t="shared" si="15"/>
+        <v>9.9699999999998319</v>
+      </c>
+      <c r="B999">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1000">
+        <f t="shared" si="15"/>
+        <v>9.9799999999998317</v>
+      </c>
+      <c r="B1000">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1001">
+        <f>A1000+0.01</f>
+        <v>9.9899999999998315</v>
+      </c>
+      <c r="B1001">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1002">
+        <f t="shared" ref="A1002" si="16">A1001+0.01</f>
+        <v>9.9999999999998312</v>
+      </c>
+      <c r="B1002">
         <v>0</v>
       </c>
     </row>

--- a/Data/rudder_test.xlsx
+++ b/Data/rudder_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando\Documents\Python_Practice\Skyhawk_Modeling\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1C1C40-E03C-439B-8795-041FF7FC1F20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA27AA9-DED8-4145-A048-A6D80840DA59}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8808" yWindow="2052" windowWidth="12096" windowHeight="9072" xr2:uid="{BEE97F73-13BA-4A7C-A824-A0DCA431BD81}"/>
+    <workbookView xWindow="1296" yWindow="2640" windowWidth="12096" windowHeight="9072" xr2:uid="{BEE97F73-13BA-4A7C-A824-A0DCA431BD81}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -393,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6321E13C-97CD-405F-8B6E-95A018812663}">
   <dimension ref="A1:C1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A987" workbookViewId="0">
-      <selection activeCell="D1000" sqref="D1000"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="E302" sqref="E302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1315,7 +1315,7 @@
         <v>1.0000000000000007</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -2215,7 +2215,7 @@
         <v>2.0000000000000013</v>
       </c>
       <c r="B202">
-        <v>-5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
